--- a/mallar/Protokoll_2016_skritt_lag_sv-r_mellan.XLSX
+++ b/mallar/Protokoll_2016_skritt_lag_sv-r_mellan.XLSX
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17726"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magnus.sandberg\Documents\Visual Studio 2015\Projects\VoltigeClosedXML\mallar\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10305" yWindow="-15" windowWidth="4845" windowHeight="7470" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15555" windowHeight="5460" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="33" r:id="rId1"/>
@@ -14,7 +19,41 @@
     <sheet name="Skritt lagkür" sheetId="32" r:id="rId5"/>
     <sheet name="Blad1" sheetId="26" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <definedNames>
+    <definedName name="bord" localSheetId="2">'Skritt jrlag grund '!$K$3</definedName>
+    <definedName name="bord" localSheetId="4">'Skritt lagkür'!$L$3</definedName>
+    <definedName name="bord" localSheetId="1">'Skritt mellan grund'!$K$3</definedName>
+    <definedName name="bord" localSheetId="3">'Skritt srlag grund'!$K$3</definedName>
+    <definedName name="datum" localSheetId="2">'Skritt jrlag grund '!$C$4</definedName>
+    <definedName name="datum" localSheetId="4">'Skritt lagkür'!$C$4</definedName>
+    <definedName name="datum" localSheetId="1">'Skritt mellan grund'!$C$4</definedName>
+    <definedName name="datum" localSheetId="3">'Skritt srlag grund'!$C$4</definedName>
+    <definedName name="domare" localSheetId="2">'Skritt jrlag grund '!$B$38</definedName>
+    <definedName name="domare" localSheetId="4">'Skritt lagkür'!$B$42</definedName>
+    <definedName name="domare" localSheetId="1">'Skritt mellan grund'!$B$40</definedName>
+    <definedName name="domare" localSheetId="3">'Skritt srlag grund'!$B$38</definedName>
+    <definedName name="firstvaulter" localSheetId="2">'Skritt jrlag grund '!$H$7</definedName>
+    <definedName name="firstvaulter" localSheetId="4">'Skritt lagkür'!$I$7</definedName>
+    <definedName name="firstvaulter" localSheetId="1">'Skritt mellan grund'!$H$7</definedName>
+    <definedName name="firstvaulter" localSheetId="3">'Skritt srlag grund'!$H$7</definedName>
+    <definedName name="id" localSheetId="2">'Skritt jrlag grund '!$L$2</definedName>
+    <definedName name="id" localSheetId="4">'Skritt lagkür'!$M$2</definedName>
+    <definedName name="id" localSheetId="1">'Skritt mellan grund'!$L$2</definedName>
+    <definedName name="id" localSheetId="3">'Skritt srlag grund'!$L$2</definedName>
+    <definedName name="klass" localSheetId="2">'Skritt jrlag grund '!$K$4</definedName>
+    <definedName name="klass" localSheetId="4">'Skritt lagkür'!$L$4</definedName>
+    <definedName name="klass" localSheetId="1">'Skritt mellan grund'!$K$4</definedName>
+    <definedName name="klass" localSheetId="3">'Skritt srlag grund'!$K$4</definedName>
+    <definedName name="moment" localSheetId="2">'Skritt jrlag grund '!$K$5</definedName>
+    <definedName name="moment" localSheetId="4">'Skritt lagkür'!$L$5</definedName>
+    <definedName name="moment" localSheetId="1">'Skritt mellan grund'!$K$5</definedName>
+    <definedName name="moment" localSheetId="3">'Skritt srlag grund'!$K$5</definedName>
+    <definedName name="result" localSheetId="2">'Skritt jrlag grund '!$K$36</definedName>
+    <definedName name="result" localSheetId="4">'Skritt lagkür'!$L$35</definedName>
+    <definedName name="result" localSheetId="1">'Skritt mellan grund'!$K$38</definedName>
+    <definedName name="result" localSheetId="3">'Skritt srlag grund'!$K$36</definedName>
+  </definedNames>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -343,7 +382,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="7">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _k_r_-;\-* #,##0.00\ _k_r_-;_-* &quot;-&quot;??\ _k_r_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -353,7 +392,7 @@
     <numFmt numFmtId="168" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="169" formatCode="0.0"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1088,74 +1127,37 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="16" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="169" fontId="4" fillId="0" borderId="11" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1171,12 +1173,36 @@
     <xf numFmtId="167" fontId="3" fillId="0" borderId="20" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1192,34 +1218,77 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1227,74 +1296,46 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="169" fontId="4" fillId="0" borderId="11" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1310,86 +1351,84 @@
     <xf numFmtId="167" fontId="3" fillId="0" borderId="20" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="16" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="3" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -1490,6 +1529,14 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1536,7 +1583,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1568,9 +1615,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1602,6 +1667,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1777,33 +1860,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="18" width="15.7109375" style="11" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="11"/>
+    <col min="1" max="18" width="15.73046875" style="11" customWidth="1"/>
+    <col min="19" max="16384" width="9.1328125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20.25">
+    <row r="1" spans="1:8" ht="20.65" x14ac:dyDescent="0.6">
       <c r="A1" s="10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15">
+    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="68" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15">
+    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.4">
       <c r="A3" s="68"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B4" s="114" t="s">
         <v>94</v>
       </c>
@@ -1816,7 +1899,7 @@
       <c r="G4" s="115"/>
       <c r="H4" s="115"/>
     </row>
-    <row r="5" spans="1:8" ht="25.5">
+    <row r="5" spans="1:8" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A5" s="116" t="s">
         <v>95</v>
       </c>
@@ -1832,7 +1915,7 @@
       <c r="G5" s="118"/>
       <c r="H5" s="118"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="116"/>
       <c r="B6" s="119"/>
       <c r="C6" s="119"/>
@@ -1842,7 +1925,7 @@
       <c r="G6" s="118"/>
       <c r="H6" s="118"/>
     </row>
-    <row r="7" spans="1:8" ht="26.25" customHeight="1">
+    <row r="7" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="116" t="s">
         <v>73</v>
       </c>
@@ -1858,7 +1941,7 @@
       <c r="G7" s="118"/>
       <c r="H7" s="118"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="116"/>
       <c r="B8" s="119"/>
       <c r="C8" s="119"/>
@@ -1868,7 +1951,7 @@
       <c r="G8" s="118"/>
       <c r="H8" s="118"/>
     </row>
-    <row r="9" spans="1:8" ht="27" customHeight="1">
+    <row r="9" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="116" t="s">
         <v>74</v>
       </c>
@@ -1890,24 +1973,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" topLeftCell="A16" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView showZeros="0" view="pageLayout" topLeftCell="E1" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="8.7109375" style="12" customWidth="1"/>
-    <col min="3" max="10" width="7.5703125" style="12" customWidth="1"/>
-    <col min="11" max="11" width="8.5703125" style="12" customWidth="1"/>
-    <col min="12" max="12" width="7.7109375" style="12" customWidth="1"/>
+    <col min="1" max="2" width="8.73046875" style="12" customWidth="1"/>
+    <col min="3" max="10" width="7.59765625" style="12" customWidth="1"/>
+    <col min="11" max="11" width="8.59765625" style="12" customWidth="1"/>
+    <col min="12" max="12" width="7.73046875" style="12" hidden="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="6" customHeight="1" thickBot="1"/>
-    <row r="2" spans="1:11" ht="24" customHeight="1" thickBot="1">
+    <row r="1" spans="1:11" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="13" t="s">
         <v>65</v>
       </c>
@@ -1919,7 +2002,7 @@
       <c r="J2" s="17"/>
       <c r="K2" s="17"/>
     </row>
-    <row r="3" spans="1:11" ht="21.75" customHeight="1" thickBot="1">
+    <row r="3" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="18" t="s">
         <v>50</v>
       </c>
@@ -1931,7 +2014,7 @@
       <c r="J3" s="17"/>
       <c r="K3" s="17"/>
     </row>
-    <row r="4" spans="1:11" ht="19.5" customHeight="1" thickBot="1">
+    <row r="4" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="19" t="s">
         <v>9</v>
       </c>
@@ -1947,14 +2030,14 @@
       <c r="J4" s="17"/>
       <c r="K4" s="17"/>
     </row>
-    <row r="5" spans="1:11" ht="17.25" customHeight="1" thickBot="1">
+    <row r="5" spans="1:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="21" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="21"/>
-      <c r="C5" s="159"/>
-      <c r="D5" s="159"/>
-      <c r="E5" s="159"/>
+      <c r="C5" s="121"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="121"/>
       <c r="G5" s="14"/>
       <c r="H5" s="15" t="s">
         <v>8</v>
@@ -1963,7 +2046,7 @@
       <c r="J5" s="17"/>
       <c r="K5" s="17"/>
     </row>
-    <row r="6" spans="1:11" ht="17.25" customHeight="1">
+    <row r="6" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>46</v>
       </c>
@@ -1971,94 +2054,94 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="17.100000000000001" customHeight="1">
+    <row r="7" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="21"/>
-      <c r="C7" s="159"/>
-      <c r="D7" s="159"/>
-      <c r="E7" s="159"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="121"/>
       <c r="G7" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="H7" s="162"/>
-      <c r="I7" s="163"/>
-      <c r="J7" s="163"/>
-      <c r="K7" s="163"/>
-    </row>
-    <row r="8" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="H7" s="124"/>
+      <c r="I7" s="125"/>
+      <c r="J7" s="125"/>
+      <c r="K7" s="125"/>
+    </row>
+    <row r="8" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="19"/>
-      <c r="C8" s="164"/>
-      <c r="D8" s="164"/>
-      <c r="E8" s="164"/>
+      <c r="C8" s="126"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="126"/>
       <c r="G8" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="H8" s="160"/>
-      <c r="I8" s="161"/>
-      <c r="J8" s="161"/>
-      <c r="K8" s="161"/>
-    </row>
-    <row r="9" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="H8" s="122"/>
+      <c r="I8" s="123"/>
+      <c r="J8" s="123"/>
+      <c r="K8" s="123"/>
+    </row>
+    <row r="9" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="21"/>
-      <c r="C9" s="159"/>
-      <c r="D9" s="159"/>
-      <c r="E9" s="159"/>
+      <c r="C9" s="121"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="121"/>
       <c r="G9" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="160"/>
-      <c r="I9" s="161"/>
-      <c r="J9" s="161"/>
-      <c r="K9" s="161"/>
-    </row>
-    <row r="10" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="H9" s="122"/>
+      <c r="I9" s="123"/>
+      <c r="J9" s="123"/>
+      <c r="K9" s="123"/>
+    </row>
+    <row r="10" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
         <v>44</v>
       </c>
       <c r="B10" s="21"/>
-      <c r="C10" s="159"/>
-      <c r="D10" s="159"/>
-      <c r="E10" s="159"/>
+      <c r="C10" s="121"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="121"/>
       <c r="G10" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="160"/>
-      <c r="I10" s="161"/>
-      <c r="J10" s="161"/>
-      <c r="K10" s="161"/>
-    </row>
-    <row r="11" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="H10" s="122"/>
+      <c r="I10" s="123"/>
+      <c r="J10" s="123"/>
+      <c r="K10" s="123"/>
+    </row>
+    <row r="11" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G11" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="160"/>
-      <c r="I11" s="161"/>
-      <c r="J11" s="161"/>
-      <c r="K11" s="161"/>
-    </row>
-    <row r="12" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="H11" s="122"/>
+      <c r="I11" s="123"/>
+      <c r="J11" s="123"/>
+      <c r="K11" s="123"/>
+    </row>
+    <row r="12" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="28"/>
       <c r="G12" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="H12" s="160"/>
-      <c r="I12" s="161"/>
-      <c r="J12" s="161"/>
-      <c r="K12" s="161"/>
-    </row>
-    <row r="13" spans="1:11" ht="10.5" customHeight="1">
+      <c r="H12" s="122"/>
+      <c r="I12" s="123"/>
+      <c r="J12" s="123"/>
+      <c r="K12" s="123"/>
+    </row>
+    <row r="13" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="29"/>
       <c r="B13" s="30"/>
     </row>
-    <row r="14" spans="1:11" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="14" spans="1:11" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E14" s="2">
         <v>1</v>
       </c>
@@ -2081,12 +2164,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="123" t="s">
+    <row r="15" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="154" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="124"/>
-      <c r="C15" s="124"/>
+      <c r="B15" s="155"/>
+      <c r="C15" s="155"/>
       <c r="D15" s="3"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -2099,12 +2182,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="123" t="s">
+    <row r="16" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="154" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="124"/>
-      <c r="C16" s="124"/>
+      <c r="B16" s="155"/>
+      <c r="C16" s="155"/>
       <c r="D16" s="3"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -2117,12 +2200,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="125" t="s">
+    <row r="17" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="156" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="124"/>
-      <c r="C17" s="124"/>
+      <c r="B17" s="155"/>
+      <c r="C17" s="155"/>
       <c r="D17" s="3"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -2135,13 +2218,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="123" t="s">
+    <row r="18" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="154" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="124"/>
-      <c r="C18" s="124"/>
-      <c r="D18" s="126"/>
+      <c r="B18" s="155"/>
+      <c r="C18" s="155"/>
+      <c r="D18" s="157"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
@@ -2153,12 +2236,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="123" t="s">
+    <row r="19" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="154" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="124"/>
-      <c r="C19" s="124"/>
+      <c r="B19" s="155"/>
+      <c r="C19" s="155"/>
       <c r="D19" s="3"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -2171,13 +2254,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="127" t="s">
+    <row r="20" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="158" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="128"/>
-      <c r="C20" s="128"/>
-      <c r="D20" s="129"/>
+      <c r="B20" s="159"/>
+      <c r="C20" s="159"/>
+      <c r="D20" s="160"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
@@ -2189,7 +2272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+    <row r="21" spans="1:11" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="65"/>
       <c r="C21" s="65"/>
       <c r="D21" s="65"/>
@@ -2206,7 +2289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="13.5" thickBot="1">
+    <row r="22" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="32" t="s">
         <v>32</v>
       </c>
@@ -2227,11 +2310,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="8.25" customHeight="1">
+    <row r="23" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="34"/>
       <c r="E23" s="36"/>
     </row>
-    <row r="24" spans="1:11" ht="11.25" customHeight="1">
+    <row r="24" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="40"/>
       <c r="B24" s="19"/>
       <c r="C24" s="19"/>
@@ -2240,12 +2323,12 @@
       <c r="F24" s="34"/>
       <c r="J24" s="41"/>
     </row>
-    <row r="25" spans="1:11" ht="12.75" customHeight="1" thickBot="1">
+    <row r="25" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K25" s="35" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="15" thickBot="1">
+    <row r="26" spans="1:11" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H26" s="42" t="s">
         <v>35</v>
       </c>
@@ -2256,7 +2339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E27" s="46"/>
       <c r="G27" s="47"/>
       <c r="H27" s="47"/>
@@ -2264,7 +2347,7 @@
       <c r="J27" s="35"/>
       <c r="K27" s="49"/>
     </row>
-    <row r="28" spans="1:11" ht="15">
+    <row r="28" spans="1:11" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A28" s="50" t="s">
         <v>54</v>
       </c>
@@ -2273,91 +2356,91 @@
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
-      <c r="G28" s="154" t="s">
+      <c r="G28" s="127" t="s">
         <v>32</v>
       </c>
-      <c r="H28" s="155"/>
-      <c r="I28" s="156" t="s">
+      <c r="H28" s="128"/>
+      <c r="I28" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="J28" s="157"/>
-      <c r="K28" s="158"/>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="130" t="s">
+      <c r="J28" s="130"/>
+      <c r="K28" s="131"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="161" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="141" t="s">
+      <c r="B29" s="136" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="141" t="s">
+      <c r="C29" s="136" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="141"/>
-      <c r="E29" s="203" t="s">
+      <c r="D29" s="136"/>
+      <c r="E29" s="144" t="s">
         <v>18</v>
       </c>
-      <c r="F29" s="204"/>
-      <c r="G29" s="149"/>
-      <c r="H29" s="150"/>
-      <c r="I29" s="151">
+      <c r="F29" s="145"/>
+      <c r="G29" s="146"/>
+      <c r="H29" s="147"/>
+      <c r="I29" s="148">
         <v>0.2</v>
       </c>
-      <c r="J29" s="143"/>
-      <c r="K29" s="145">
+      <c r="J29" s="132"/>
+      <c r="K29" s="134">
         <f>J29*0.2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="46.5" customHeight="1">
-      <c r="A30" s="140"/>
-      <c r="B30" s="141"/>
-      <c r="C30" s="141" t="s">
+    <row r="30" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="173"/>
+      <c r="B30" s="136"/>
+      <c r="C30" s="136" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="141"/>
-      <c r="E30" s="205" t="s">
+      <c r="D30" s="136"/>
+      <c r="E30" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="F30" s="206"/>
-      <c r="G30" s="135"/>
-      <c r="H30" s="136"/>
-      <c r="I30" s="152"/>
-      <c r="J30" s="143"/>
-      <c r="K30" s="145"/>
-    </row>
-    <row r="31" spans="1:11" ht="35.25" customHeight="1">
-      <c r="A31" s="131"/>
-      <c r="B31" s="142"/>
-      <c r="C31" s="142" t="s">
+      <c r="F30" s="138"/>
+      <c r="G30" s="139"/>
+      <c r="H30" s="140"/>
+      <c r="I30" s="149"/>
+      <c r="J30" s="132"/>
+      <c r="K30" s="134"/>
+    </row>
+    <row r="31" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="162"/>
+      <c r="B31" s="141"/>
+      <c r="C31" s="141" t="s">
         <v>17</v>
       </c>
-      <c r="D31" s="142"/>
-      <c r="E31" s="205" t="s">
+      <c r="D31" s="141"/>
+      <c r="E31" s="137" t="s">
         <v>56</v>
       </c>
-      <c r="F31" s="206"/>
-      <c r="G31" s="147"/>
-      <c r="H31" s="148"/>
-      <c r="I31" s="153"/>
-      <c r="J31" s="144"/>
-      <c r="K31" s="146"/>
-    </row>
-    <row r="32" spans="1:11" ht="23.25" customHeight="1">
-      <c r="A32" s="130" t="s">
+      <c r="F31" s="138"/>
+      <c r="G31" s="142"/>
+      <c r="H31" s="143"/>
+      <c r="I31" s="150"/>
+      <c r="J31" s="133"/>
+      <c r="K31" s="135"/>
+    </row>
+    <row r="32" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="161" t="s">
         <v>57</v>
       </c>
-      <c r="B32" s="132" t="s">
+      <c r="B32" s="163" t="s">
         <v>58</v>
       </c>
-      <c r="C32" s="133"/>
-      <c r="D32" s="134"/>
-      <c r="E32" s="207" t="s">
+      <c r="C32" s="164"/>
+      <c r="D32" s="165"/>
+      <c r="E32" s="166" t="s">
         <v>59</v>
       </c>
-      <c r="F32" s="208"/>
-      <c r="G32" s="135"/>
-      <c r="H32" s="136"/>
+      <c r="F32" s="167"/>
+      <c r="G32" s="139"/>
+      <c r="H32" s="140"/>
       <c r="I32" s="51">
         <v>0.4</v>
       </c>
@@ -2367,19 +2450,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="66.75" customHeight="1" thickBot="1">
-      <c r="A33" s="131"/>
-      <c r="B33" s="137" t="s">
+    <row r="33" spans="1:11" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="162"/>
+      <c r="B33" s="168" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="138"/>
-      <c r="D33" s="139"/>
-      <c r="E33" s="209" t="s">
+      <c r="C33" s="169"/>
+      <c r="D33" s="170"/>
+      <c r="E33" s="171" t="s">
         <v>23</v>
       </c>
-      <c r="F33" s="210"/>
-      <c r="G33" s="135"/>
-      <c r="H33" s="136"/>
+      <c r="F33" s="172"/>
+      <c r="G33" s="139"/>
+      <c r="H33" s="140"/>
       <c r="I33" s="51">
         <v>0.4</v>
       </c>
@@ -2389,24 +2472,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="13.5" thickBot="1">
+    <row r="34" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="B34" s="120" t="s">
+      <c r="B34" s="151" t="s">
         <v>60</v>
       </c>
-      <c r="C34" s="121"/>
-      <c r="D34" s="121"/>
-      <c r="E34" s="121"/>
-      <c r="F34" s="121"/>
-      <c r="G34" s="121"/>
-      <c r="H34" s="121"/>
-      <c r="I34" s="122"/>
+      <c r="C34" s="152"/>
+      <c r="D34" s="152"/>
+      <c r="E34" s="152"/>
+      <c r="F34" s="152"/>
+      <c r="G34" s="152"/>
+      <c r="H34" s="152"/>
+      <c r="I34" s="153"/>
       <c r="J34" s="53"/>
       <c r="K34" s="54"/>
     </row>
-    <row r="35" spans="1:11" ht="18" customHeight="1" thickBot="1">
+    <row r="35" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="55"/>
       <c r="B35" s="55"/>
       <c r="C35" s="55"/>
@@ -2421,7 +2504,7 @@
       </c>
       <c r="K35" s="58"/>
     </row>
-    <row r="36" spans="1:11" ht="18" customHeight="1" thickBot="1">
+    <row r="36" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="55"/>
       <c r="B36" s="55"/>
       <c r="C36" s="55"/>
@@ -2436,7 +2519,7 @@
       </c>
       <c r="K36" s="58"/>
     </row>
-    <row r="37" spans="1:11" ht="18" customHeight="1" thickBot="1">
+    <row r="37" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="55"/>
       <c r="B37" s="55"/>
       <c r="C37" s="55"/>
@@ -2454,7 +2537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="18" customHeight="1" thickBot="1">
+    <row r="38" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E38" s="46"/>
       <c r="G38" s="47"/>
       <c r="H38" s="61"/>
@@ -2464,13 +2547,13 @@
       <c r="J38" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="K38" s="211">
+      <c r="K38" s="120">
         <f>K37/8</f>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="9.75" customHeight="1"/>
-    <row r="40" spans="1:11">
+    <row r="39" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="19" t="s">
         <v>21</v>
       </c>
@@ -2486,7 +2569,7 @@
       <c r="J40" s="19"/>
       <c r="K40" s="19"/>
     </row>
-    <row r="41" spans="1:11" ht="9" customHeight="1">
+    <row r="41" spans="1:11" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E41" s="46"/>
       <c r="G41" s="47"/>
       <c r="H41" s="47"/>
@@ -2494,35 +2577,10 @@
       <c r="J41" s="35"/>
       <c r="K41" s="49"/>
     </row>
-    <row r="46" spans="1:11" ht="12" customHeight="1"/>
-    <row r="47" spans="1:11" ht="13.5" customHeight="1"/>
+    <row r="46" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="J29:J31"/>
-    <mergeCell ref="K29:K31"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:I31"/>
     <mergeCell ref="B34:I34"/>
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="A16:C16"/>
@@ -2539,6 +2597,31 @@
     <mergeCell ref="G33:H33"/>
     <mergeCell ref="A29:A31"/>
     <mergeCell ref="B29:B31"/>
+    <mergeCell ref="J29:J31"/>
+    <mergeCell ref="K29:K31"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:I31"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="H8:K8"/>
   </mergeCells>
   <conditionalFormatting sqref="K29:K37">
     <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
@@ -2562,27 +2645,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" topLeftCell="A16" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28:K36"/>
+    <sheetView showZeros="0" view="pageLayout" topLeftCell="F1" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="8.7109375" style="12" customWidth="1"/>
-    <col min="3" max="7" width="7.5703125" style="12" customWidth="1"/>
-    <col min="8" max="8" width="7.28515625" style="12" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" style="12" customWidth="1"/>
+    <col min="1" max="2" width="8.73046875" style="12" customWidth="1"/>
+    <col min="3" max="7" width="7.59765625" style="12" customWidth="1"/>
+    <col min="8" max="8" width="7.265625" style="12" customWidth="1"/>
+    <col min="9" max="9" width="7.1328125" style="12" customWidth="1"/>
     <col min="10" max="10" width="7" style="12" customWidth="1"/>
-    <col min="11" max="11" width="9.85546875" style="12" customWidth="1"/>
-    <col min="12" max="12" width="7.7109375" style="12" customWidth="1"/>
+    <col min="11" max="11" width="9.86328125" style="12" customWidth="1"/>
+    <col min="12" max="12" width="7.73046875" style="12" hidden="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="6" customHeight="1" thickBot="1"/>
-    <row r="2" spans="1:11" ht="24" customHeight="1" thickBot="1">
+    <row r="1" spans="1:11" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="13" t="s">
         <v>70</v>
       </c>
@@ -2594,7 +2677,7 @@
       <c r="J2" s="17"/>
       <c r="K2" s="17"/>
     </row>
-    <row r="3" spans="1:11" ht="21.75" customHeight="1" thickBot="1">
+    <row r="3" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="18" t="s">
         <v>50</v>
       </c>
@@ -2606,7 +2689,7 @@
       <c r="J3" s="17"/>
       <c r="K3" s="17"/>
     </row>
-    <row r="4" spans="1:11" ht="19.5" customHeight="1" thickBot="1">
+    <row r="4" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="19" t="s">
         <v>9</v>
       </c>
@@ -2622,14 +2705,14 @@
       <c r="J4" s="17"/>
       <c r="K4" s="17"/>
     </row>
-    <row r="5" spans="1:11" ht="17.25" customHeight="1" thickBot="1">
+    <row r="5" spans="1:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="21" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="21"/>
-      <c r="C5" s="159"/>
-      <c r="D5" s="159"/>
-      <c r="E5" s="159"/>
+      <c r="C5" s="121"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="121"/>
       <c r="G5" s="14"/>
       <c r="H5" s="15" t="s">
         <v>8</v>
@@ -2638,7 +2721,7 @@
       <c r="J5" s="17"/>
       <c r="K5" s="17"/>
     </row>
-    <row r="6" spans="1:11" ht="17.25" customHeight="1">
+    <row r="6" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>46</v>
       </c>
@@ -2646,94 +2729,94 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="17.100000000000001" customHeight="1">
+    <row r="7" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="21"/>
-      <c r="C7" s="159"/>
-      <c r="D7" s="159"/>
-      <c r="E7" s="159"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="121"/>
       <c r="G7" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="H7" s="162"/>
-      <c r="I7" s="163"/>
-      <c r="J7" s="163"/>
-      <c r="K7" s="163"/>
-    </row>
-    <row r="8" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="H7" s="124"/>
+      <c r="I7" s="125"/>
+      <c r="J7" s="125"/>
+      <c r="K7" s="125"/>
+    </row>
+    <row r="8" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="19"/>
-      <c r="C8" s="164"/>
-      <c r="D8" s="164"/>
-      <c r="E8" s="164"/>
+      <c r="C8" s="126"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="126"/>
       <c r="G8" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="H8" s="160"/>
-      <c r="I8" s="161"/>
-      <c r="J8" s="161"/>
-      <c r="K8" s="161"/>
-    </row>
-    <row r="9" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="H8" s="122"/>
+      <c r="I8" s="123"/>
+      <c r="J8" s="123"/>
+      <c r="K8" s="123"/>
+    </row>
+    <row r="9" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="21"/>
-      <c r="C9" s="159"/>
-      <c r="D9" s="159"/>
-      <c r="E9" s="159"/>
+      <c r="C9" s="121"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="121"/>
       <c r="G9" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="160"/>
-      <c r="I9" s="161"/>
-      <c r="J9" s="161"/>
-      <c r="K9" s="161"/>
-    </row>
-    <row r="10" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="H9" s="122"/>
+      <c r="I9" s="123"/>
+      <c r="J9" s="123"/>
+      <c r="K9" s="123"/>
+    </row>
+    <row r="10" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
         <v>44</v>
       </c>
       <c r="B10" s="21"/>
-      <c r="C10" s="159"/>
-      <c r="D10" s="159"/>
-      <c r="E10" s="159"/>
+      <c r="C10" s="121"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="121"/>
       <c r="G10" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="160"/>
-      <c r="I10" s="161"/>
-      <c r="J10" s="161"/>
-      <c r="K10" s="161"/>
-    </row>
-    <row r="11" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="H10" s="122"/>
+      <c r="I10" s="123"/>
+      <c r="J10" s="123"/>
+      <c r="K10" s="123"/>
+    </row>
+    <row r="11" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G11" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="160"/>
-      <c r="I11" s="161"/>
-      <c r="J11" s="161"/>
-      <c r="K11" s="161"/>
-    </row>
-    <row r="12" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="H11" s="122"/>
+      <c r="I11" s="123"/>
+      <c r="J11" s="123"/>
+      <c r="K11" s="123"/>
+    </row>
+    <row r="12" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="28"/>
       <c r="G12" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="H12" s="160"/>
-      <c r="I12" s="161"/>
-      <c r="J12" s="161"/>
-      <c r="K12" s="161"/>
-    </row>
-    <row r="13" spans="1:11" ht="10.5" customHeight="1">
+      <c r="H12" s="122"/>
+      <c r="I12" s="123"/>
+      <c r="J12" s="123"/>
+      <c r="K12" s="123"/>
+    </row>
+    <row r="13" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="29"/>
       <c r="B13" s="30"/>
     </row>
-    <row r="14" spans="1:11" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="14" spans="1:11" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E14" s="2">
         <v>1</v>
       </c>
@@ -2756,12 +2839,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="1" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A15" s="123" t="s">
+    <row r="15" spans="1:11" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="154" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="124"/>
-      <c r="C15" s="124"/>
+      <c r="B15" s="155"/>
+      <c r="C15" s="155"/>
       <c r="D15" s="3"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -2774,12 +2857,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="1" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A16" s="123" t="s">
+    <row r="16" spans="1:11" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="154" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="124"/>
-      <c r="C16" s="124"/>
+      <c r="B16" s="155"/>
+      <c r="C16" s="155"/>
       <c r="D16" s="3"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -2792,12 +2875,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="1" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A17" s="125" t="s">
+    <row r="17" spans="1:11" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="156" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="124"/>
-      <c r="C17" s="124"/>
+      <c r="B17" s="155"/>
+      <c r="C17" s="155"/>
       <c r="D17" s="3"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -2810,12 +2893,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="1" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A18" s="165" t="s">
+    <row r="18" spans="1:11" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="175" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="166"/>
-      <c r="C18" s="166"/>
+      <c r="B18" s="176"/>
+      <c r="C18" s="176"/>
       <c r="D18" s="5"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -2828,12 +2911,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="1" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A19" s="123" t="s">
+    <row r="19" spans="1:11" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="154" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="124"/>
-      <c r="C19" s="124"/>
+      <c r="B19" s="155"/>
+      <c r="C19" s="155"/>
       <c r="D19" s="3"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -2846,7 +2929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="1" customFormat="1" ht="18" customHeight="1">
+    <row r="20" spans="1:11" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>28</v>
       </c>
@@ -2864,12 +2947,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A21" s="127" t="s">
+    <row r="21" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="158" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="167"/>
-      <c r="C21" s="167"/>
+      <c r="B21" s="174"/>
+      <c r="C21" s="174"/>
       <c r="D21" s="7"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -2882,7 +2965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="19.5" customHeight="1">
+    <row r="22" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="33"/>
       <c r="B22" s="33"/>
       <c r="C22" s="33"/>
@@ -2893,7 +2976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="18.75" customHeight="1">
+    <row r="23" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J23" s="70" t="s">
         <v>67</v>
       </c>
@@ -2902,12 +2985,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="12.75" customHeight="1" thickBot="1">
+    <row r="24" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K24" s="35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15" thickBot="1">
+    <row r="25" spans="1:11" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H25" s="42" t="s">
         <v>35</v>
       </c>
@@ -2918,7 +3001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="9" customHeight="1">
+    <row r="26" spans="1:11" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E26" s="46"/>
       <c r="G26" s="47"/>
       <c r="H26" s="47"/>
@@ -2926,7 +3009,7 @@
       <c r="J26" s="35"/>
       <c r="K26" s="49"/>
     </row>
-    <row r="27" spans="1:11" ht="15">
+    <row r="27" spans="1:11" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A27" s="50" t="s">
         <v>54</v>
       </c>
@@ -2935,91 +3018,91 @@
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
-      <c r="G27" s="154" t="s">
+      <c r="G27" s="127" t="s">
         <v>32</v>
       </c>
-      <c r="H27" s="155"/>
-      <c r="I27" s="156" t="s">
+      <c r="H27" s="128"/>
+      <c r="I27" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="J27" s="157"/>
-      <c r="K27" s="158"/>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="130" t="s">
+      <c r="J27" s="130"/>
+      <c r="K27" s="131"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="161" t="s">
         <v>55</v>
       </c>
-      <c r="B28" s="141" t="s">
+      <c r="B28" s="136" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="141" t="s">
+      <c r="C28" s="136" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="141"/>
-      <c r="E28" s="203" t="s">
+      <c r="D28" s="136"/>
+      <c r="E28" s="144" t="s">
         <v>18</v>
       </c>
-      <c r="F28" s="204"/>
-      <c r="G28" s="149"/>
-      <c r="H28" s="150"/>
-      <c r="I28" s="151">
+      <c r="F28" s="145"/>
+      <c r="G28" s="146"/>
+      <c r="H28" s="147"/>
+      <c r="I28" s="148">
         <v>0.2</v>
       </c>
-      <c r="J28" s="143"/>
-      <c r="K28" s="145">
+      <c r="J28" s="132"/>
+      <c r="K28" s="134">
         <f>J28*0.2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="46.5" customHeight="1">
-      <c r="A29" s="140"/>
-      <c r="B29" s="141"/>
-      <c r="C29" s="141" t="s">
+    <row r="29" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="173"/>
+      <c r="B29" s="136"/>
+      <c r="C29" s="136" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="141"/>
-      <c r="E29" s="205" t="s">
+      <c r="D29" s="136"/>
+      <c r="E29" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="206"/>
-      <c r="G29" s="135"/>
-      <c r="H29" s="136"/>
-      <c r="I29" s="152"/>
-      <c r="J29" s="143"/>
-      <c r="K29" s="145"/>
-    </row>
-    <row r="30" spans="1:11" ht="35.25" customHeight="1">
-      <c r="A30" s="131"/>
-      <c r="B30" s="142"/>
-      <c r="C30" s="142" t="s">
+      <c r="F29" s="138"/>
+      <c r="G29" s="139"/>
+      <c r="H29" s="140"/>
+      <c r="I29" s="149"/>
+      <c r="J29" s="132"/>
+      <c r="K29" s="134"/>
+    </row>
+    <row r="30" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="162"/>
+      <c r="B30" s="141"/>
+      <c r="C30" s="141" t="s">
         <v>17</v>
       </c>
-      <c r="D30" s="142"/>
-      <c r="E30" s="205" t="s">
+      <c r="D30" s="141"/>
+      <c r="E30" s="137" t="s">
         <v>56</v>
       </c>
-      <c r="F30" s="206"/>
-      <c r="G30" s="147"/>
-      <c r="H30" s="148"/>
-      <c r="I30" s="153"/>
-      <c r="J30" s="144"/>
-      <c r="K30" s="146"/>
-    </row>
-    <row r="31" spans="1:11" ht="23.25" customHeight="1">
-      <c r="A31" s="130" t="s">
+      <c r="F30" s="138"/>
+      <c r="G30" s="142"/>
+      <c r="H30" s="143"/>
+      <c r="I30" s="150"/>
+      <c r="J30" s="133"/>
+      <c r="K30" s="135"/>
+    </row>
+    <row r="31" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="161" t="s">
         <v>57</v>
       </c>
-      <c r="B31" s="132" t="s">
+      <c r="B31" s="163" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="133"/>
-      <c r="D31" s="134"/>
-      <c r="E31" s="207" t="s">
+      <c r="C31" s="164"/>
+      <c r="D31" s="165"/>
+      <c r="E31" s="166" t="s">
         <v>59</v>
       </c>
-      <c r="F31" s="208"/>
-      <c r="G31" s="135"/>
-      <c r="H31" s="136"/>
+      <c r="F31" s="167"/>
+      <c r="G31" s="139"/>
+      <c r="H31" s="140"/>
       <c r="I31" s="51">
         <v>0.4</v>
       </c>
@@ -3029,19 +3112,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="66.75" customHeight="1" thickBot="1">
-      <c r="A32" s="131"/>
-      <c r="B32" s="137" t="s">
+    <row r="32" spans="1:11" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="162"/>
+      <c r="B32" s="168" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="138"/>
-      <c r="D32" s="139"/>
-      <c r="E32" s="209" t="s">
+      <c r="C32" s="169"/>
+      <c r="D32" s="170"/>
+      <c r="E32" s="171" t="s">
         <v>23</v>
       </c>
-      <c r="F32" s="210"/>
-      <c r="G32" s="135"/>
-      <c r="H32" s="136"/>
+      <c r="F32" s="172"/>
+      <c r="G32" s="139"/>
+      <c r="H32" s="140"/>
       <c r="I32" s="51">
         <v>0.4</v>
       </c>
@@ -3051,24 +3134,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="13.5" thickBot="1">
+    <row r="33" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="B33" s="120" t="s">
+      <c r="B33" s="151" t="s">
         <v>60</v>
       </c>
-      <c r="C33" s="121"/>
-      <c r="D33" s="121"/>
-      <c r="E33" s="121"/>
-      <c r="F33" s="121"/>
-      <c r="G33" s="121"/>
-      <c r="H33" s="121"/>
-      <c r="I33" s="122"/>
+      <c r="C33" s="152"/>
+      <c r="D33" s="152"/>
+      <c r="E33" s="152"/>
+      <c r="F33" s="152"/>
+      <c r="G33" s="152"/>
+      <c r="H33" s="152"/>
+      <c r="I33" s="153"/>
       <c r="J33" s="53"/>
       <c r="K33" s="54"/>
     </row>
-    <row r="34" spans="1:11" ht="18" customHeight="1" thickBot="1">
+    <row r="34" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="55"/>
       <c r="B34" s="55"/>
       <c r="C34" s="55"/>
@@ -3086,7 +3169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="18" customHeight="1" thickBot="1">
+    <row r="35" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="55"/>
       <c r="B35" s="55"/>
       <c r="C35" s="55"/>
@@ -3104,7 +3187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="18" customHeight="1" thickBot="1">
+    <row r="36" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E36" s="46"/>
       <c r="G36" s="47"/>
       <c r="H36" s="61"/>
@@ -3114,13 +3197,13 @@
       <c r="J36" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="K36" s="211">
+      <c r="K36" s="120">
         <f>K35/4</f>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="9.75" customHeight="1"/>
-    <row r="38" spans="1:11">
+    <row r="37" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="19" t="s">
         <v>21</v>
       </c>
@@ -3136,7 +3219,7 @@
       <c r="J38" s="19"/>
       <c r="K38" s="19"/>
     </row>
-    <row r="39" spans="1:11" ht="9" customHeight="1">
+    <row r="39" spans="1:11" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E39" s="46"/>
       <c r="G39" s="47"/>
       <c r="H39" s="47"/>
@@ -3144,10 +3227,38 @@
       <c r="J39" s="35"/>
       <c r="K39" s="49"/>
     </row>
-    <row r="44" spans="1:11" ht="12" customHeight="1"/>
-    <row r="45" spans="1:11" ht="13.5" customHeight="1"/>
+    <row r="44" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="J28:J30"/>
+    <mergeCell ref="K28:K30"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:I30"/>
     <mergeCell ref="B33:I33"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="A19:C19"/>
@@ -3161,34 +3272,6 @@
     <mergeCell ref="G32:H32"/>
     <mergeCell ref="A28:A30"/>
     <mergeCell ref="B28:B30"/>
-    <mergeCell ref="J28:J30"/>
-    <mergeCell ref="K28:K30"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:I30"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="H8:K8"/>
   </mergeCells>
   <conditionalFormatting sqref="K28:K35">
     <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
@@ -3212,29 +3295,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" topLeftCell="A19" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28:K36"/>
+    <sheetView showZeros="0" view="pageLayout" topLeftCell="E1" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="8.7109375" style="12" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" style="12" customWidth="1"/>
+    <col min="1" max="2" width="8.73046875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="7.59765625" style="12" customWidth="1"/>
     <col min="4" max="4" width="7" style="12" customWidth="1"/>
-    <col min="5" max="7" width="7.5703125" style="12" customWidth="1"/>
-    <col min="8" max="8" width="7.28515625" style="12" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" style="12" customWidth="1"/>
+    <col min="5" max="7" width="7.59765625" style="12" customWidth="1"/>
+    <col min="8" max="8" width="7.265625" style="12" customWidth="1"/>
+    <col min="9" max="9" width="7.1328125" style="12" customWidth="1"/>
     <col min="10" max="10" width="7" style="12" customWidth="1"/>
-    <col min="11" max="11" width="9.85546875" style="12" customWidth="1"/>
-    <col min="12" max="12" width="7.7109375" style="12" customWidth="1"/>
+    <col min="11" max="11" width="9.86328125" style="12" customWidth="1"/>
+    <col min="12" max="12" width="7.73046875" style="12" hidden="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="6" customHeight="1" thickBot="1"/>
-    <row r="2" spans="1:11" ht="24" customHeight="1" thickBot="1">
+    <row r="1" spans="1:11" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="13" t="s">
         <v>72</v>
       </c>
@@ -3246,7 +3329,7 @@
       <c r="J2" s="17"/>
       <c r="K2" s="17"/>
     </row>
-    <row r="3" spans="1:11" ht="21.75" customHeight="1" thickBot="1">
+    <row r="3" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="18" t="s">
         <v>50</v>
       </c>
@@ -3258,7 +3341,7 @@
       <c r="J3" s="17"/>
       <c r="K3" s="17"/>
     </row>
-    <row r="4" spans="1:11" ht="19.5" customHeight="1" thickBot="1">
+    <row r="4" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="19" t="s">
         <v>9</v>
       </c>
@@ -3274,14 +3357,14 @@
       <c r="J4" s="17"/>
       <c r="K4" s="17"/>
     </row>
-    <row r="5" spans="1:11" ht="17.25" customHeight="1" thickBot="1">
+    <row r="5" spans="1:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="21" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="21"/>
-      <c r="C5" s="159"/>
-      <c r="D5" s="159"/>
-      <c r="E5" s="159"/>
+      <c r="C5" s="121"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="121"/>
       <c r="G5" s="14"/>
       <c r="H5" s="15" t="s">
         <v>8</v>
@@ -3290,7 +3373,7 @@
       <c r="J5" s="17"/>
       <c r="K5" s="17"/>
     </row>
-    <row r="6" spans="1:11" ht="17.25" customHeight="1">
+    <row r="6" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>46</v>
       </c>
@@ -3298,94 +3381,94 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="17.100000000000001" customHeight="1">
+    <row r="7" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="21"/>
-      <c r="C7" s="159"/>
-      <c r="D7" s="159"/>
-      <c r="E7" s="159"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="121"/>
       <c r="G7" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="H7" s="162"/>
-      <c r="I7" s="163"/>
-      <c r="J7" s="163"/>
-      <c r="K7" s="163"/>
-    </row>
-    <row r="8" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="H7" s="124"/>
+      <c r="I7" s="125"/>
+      <c r="J7" s="125"/>
+      <c r="K7" s="125"/>
+    </row>
+    <row r="8" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="19"/>
-      <c r="C8" s="164"/>
-      <c r="D8" s="164"/>
-      <c r="E8" s="164"/>
+      <c r="C8" s="126"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="126"/>
       <c r="G8" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="H8" s="160"/>
-      <c r="I8" s="161"/>
-      <c r="J8" s="161"/>
-      <c r="K8" s="161"/>
-    </row>
-    <row r="9" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="H8" s="122"/>
+      <c r="I8" s="123"/>
+      <c r="J8" s="123"/>
+      <c r="K8" s="123"/>
+    </row>
+    <row r="9" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="21"/>
-      <c r="C9" s="159"/>
-      <c r="D9" s="159"/>
-      <c r="E9" s="159"/>
+      <c r="C9" s="121"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="121"/>
       <c r="G9" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="160"/>
-      <c r="I9" s="161"/>
-      <c r="J9" s="161"/>
-      <c r="K9" s="161"/>
-    </row>
-    <row r="10" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="H9" s="122"/>
+      <c r="I9" s="123"/>
+      <c r="J9" s="123"/>
+      <c r="K9" s="123"/>
+    </row>
+    <row r="10" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
         <v>44</v>
       </c>
       <c r="B10" s="21"/>
-      <c r="C10" s="159"/>
-      <c r="D10" s="159"/>
-      <c r="E10" s="159"/>
+      <c r="C10" s="121"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="121"/>
       <c r="G10" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="160"/>
-      <c r="I10" s="161"/>
-      <c r="J10" s="161"/>
-      <c r="K10" s="161"/>
-    </row>
-    <row r="11" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="H10" s="122"/>
+      <c r="I10" s="123"/>
+      <c r="J10" s="123"/>
+      <c r="K10" s="123"/>
+    </row>
+    <row r="11" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G11" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="160"/>
-      <c r="I11" s="161"/>
-      <c r="J11" s="161"/>
-      <c r="K11" s="161"/>
-    </row>
-    <row r="12" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="H11" s="122"/>
+      <c r="I11" s="123"/>
+      <c r="J11" s="123"/>
+      <c r="K11" s="123"/>
+    </row>
+    <row r="12" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="28"/>
       <c r="G12" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="H12" s="160"/>
-      <c r="I12" s="161"/>
-      <c r="J12" s="161"/>
-      <c r="K12" s="161"/>
-    </row>
-    <row r="13" spans="1:11" ht="10.5" customHeight="1">
+      <c r="H12" s="122"/>
+      <c r="I12" s="123"/>
+      <c r="J12" s="123"/>
+      <c r="K12" s="123"/>
+    </row>
+    <row r="13" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="29"/>
       <c r="B13" s="30"/>
     </row>
-    <row r="14" spans="1:11" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="14" spans="1:11" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E14" s="2">
         <v>1</v>
       </c>
@@ -3408,12 +3491,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="1" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A15" s="123" t="s">
+    <row r="15" spans="1:11" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="154" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="124"/>
-      <c r="C15" s="124"/>
+      <c r="B15" s="155"/>
+      <c r="C15" s="155"/>
       <c r="D15" s="3"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -3426,12 +3509,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="1" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A16" s="123" t="s">
+    <row r="16" spans="1:11" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="154" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="124"/>
-      <c r="C16" s="124"/>
+      <c r="B16" s="155"/>
+      <c r="C16" s="155"/>
       <c r="D16" s="3"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -3444,12 +3527,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="1" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A17" s="165" t="s">
+    <row r="17" spans="1:11" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="175" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="166"/>
-      <c r="C17" s="166"/>
+      <c r="B17" s="176"/>
+      <c r="C17" s="176"/>
       <c r="D17" s="3"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -3462,12 +3545,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="1" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A18" s="123" t="s">
+    <row r="18" spans="1:11" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="154" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="124"/>
-      <c r="C18" s="124"/>
+      <c r="B18" s="155"/>
+      <c r="C18" s="155"/>
       <c r="D18" s="5"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -3480,7 +3563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="1" customFormat="1" ht="18" customHeight="1">
+    <row r="19" spans="1:11" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>28</v>
       </c>
@@ -3498,7 +3581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="17.25" customHeight="1">
+    <row r="20" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>40</v>
       </c>
@@ -3516,13 +3599,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A21" s="127" t="s">
+    <row r="21" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="158" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="128"/>
-      <c r="C21" s="128"/>
-      <c r="D21" s="129"/>
+      <c r="B21" s="159"/>
+      <c r="C21" s="159"/>
+      <c r="D21" s="160"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
@@ -3534,7 +3617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="19.5" customHeight="1">
+    <row r="22" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="72"/>
       <c r="B22" s="72"/>
       <c r="C22" s="72"/>
@@ -3552,7 +3635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="18.75" customHeight="1">
+    <row r="23" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J23" s="70" t="s">
         <v>67</v>
       </c>
@@ -3561,12 +3644,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="12.75" customHeight="1" thickBot="1">
+    <row r="24" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K24" s="35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15" thickBot="1">
+    <row r="25" spans="1:11" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H25" s="42" t="s">
         <v>35</v>
       </c>
@@ -3577,7 +3660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="9" customHeight="1">
+    <row r="26" spans="1:11" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E26" s="46"/>
       <c r="G26" s="47"/>
       <c r="H26" s="47"/>
@@ -3585,7 +3668,7 @@
       <c r="J26" s="35"/>
       <c r="K26" s="49"/>
     </row>
-    <row r="27" spans="1:11" ht="15">
+    <row r="27" spans="1:11" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A27" s="50" t="s">
         <v>54</v>
       </c>
@@ -3594,91 +3677,91 @@
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
-      <c r="G27" s="154" t="s">
+      <c r="G27" s="127" t="s">
         <v>32</v>
       </c>
-      <c r="H27" s="155"/>
-      <c r="I27" s="156" t="s">
+      <c r="H27" s="128"/>
+      <c r="I27" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="J27" s="157"/>
-      <c r="K27" s="158"/>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="130" t="s">
+      <c r="J27" s="130"/>
+      <c r="K27" s="131"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="161" t="s">
         <v>55</v>
       </c>
-      <c r="B28" s="141" t="s">
+      <c r="B28" s="136" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="212" t="s">
+      <c r="C28" s="177" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="212"/>
-      <c r="E28" s="203" t="s">
+      <c r="D28" s="177"/>
+      <c r="E28" s="144" t="s">
         <v>18</v>
       </c>
-      <c r="F28" s="204"/>
-      <c r="G28" s="149"/>
-      <c r="H28" s="150"/>
-      <c r="I28" s="151">
+      <c r="F28" s="145"/>
+      <c r="G28" s="146"/>
+      <c r="H28" s="147"/>
+      <c r="I28" s="148">
         <v>0.2</v>
       </c>
-      <c r="J28" s="143"/>
-      <c r="K28" s="145">
+      <c r="J28" s="132"/>
+      <c r="K28" s="134">
         <f>J28*0.2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="46.5" customHeight="1">
-      <c r="A29" s="140"/>
-      <c r="B29" s="141"/>
-      <c r="C29" s="212" t="s">
+    <row r="29" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="173"/>
+      <c r="B29" s="136"/>
+      <c r="C29" s="177" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="212"/>
-      <c r="E29" s="205" t="s">
+      <c r="D29" s="177"/>
+      <c r="E29" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="206"/>
-      <c r="G29" s="135"/>
-      <c r="H29" s="136"/>
-      <c r="I29" s="152"/>
-      <c r="J29" s="143"/>
-      <c r="K29" s="145"/>
-    </row>
-    <row r="30" spans="1:11" ht="35.25" customHeight="1">
-      <c r="A30" s="131"/>
-      <c r="B30" s="142"/>
-      <c r="C30" s="213" t="s">
+      <c r="F29" s="138"/>
+      <c r="G29" s="139"/>
+      <c r="H29" s="140"/>
+      <c r="I29" s="149"/>
+      <c r="J29" s="132"/>
+      <c r="K29" s="134"/>
+    </row>
+    <row r="30" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="162"/>
+      <c r="B30" s="141"/>
+      <c r="C30" s="178" t="s">
         <v>17</v>
       </c>
-      <c r="D30" s="213"/>
-      <c r="E30" s="205" t="s">
+      <c r="D30" s="178"/>
+      <c r="E30" s="137" t="s">
         <v>56</v>
       </c>
-      <c r="F30" s="206"/>
-      <c r="G30" s="147"/>
-      <c r="H30" s="148"/>
-      <c r="I30" s="153"/>
-      <c r="J30" s="144"/>
-      <c r="K30" s="146"/>
-    </row>
-    <row r="31" spans="1:11" ht="23.25" customHeight="1">
-      <c r="A31" s="130" t="s">
+      <c r="F30" s="138"/>
+      <c r="G30" s="142"/>
+      <c r="H30" s="143"/>
+      <c r="I30" s="150"/>
+      <c r="J30" s="133"/>
+      <c r="K30" s="135"/>
+    </row>
+    <row r="31" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="161" t="s">
         <v>57</v>
       </c>
-      <c r="B31" s="132" t="s">
+      <c r="B31" s="163" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="133"/>
-      <c r="D31" s="134"/>
-      <c r="E31" s="207" t="s">
+      <c r="C31" s="164"/>
+      <c r="D31" s="165"/>
+      <c r="E31" s="166" t="s">
         <v>59</v>
       </c>
-      <c r="F31" s="208"/>
-      <c r="G31" s="135"/>
-      <c r="H31" s="136"/>
+      <c r="F31" s="167"/>
+      <c r="G31" s="139"/>
+      <c r="H31" s="140"/>
       <c r="I31" s="51">
         <v>0.4</v>
       </c>
@@ -3688,19 +3771,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="66.75" customHeight="1" thickBot="1">
-      <c r="A32" s="131"/>
-      <c r="B32" s="137" t="s">
+    <row r="32" spans="1:11" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="162"/>
+      <c r="B32" s="168" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="138"/>
-      <c r="D32" s="139"/>
-      <c r="E32" s="209" t="s">
+      <c r="C32" s="169"/>
+      <c r="D32" s="170"/>
+      <c r="E32" s="171" t="s">
         <v>23</v>
       </c>
-      <c r="F32" s="210"/>
-      <c r="G32" s="135"/>
-      <c r="H32" s="136"/>
+      <c r="F32" s="172"/>
+      <c r="G32" s="139"/>
+      <c r="H32" s="140"/>
       <c r="I32" s="51">
         <v>0.4</v>
       </c>
@@ -3710,24 +3793,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="13.5" thickBot="1">
+    <row r="33" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="B33" s="120" t="s">
+      <c r="B33" s="151" t="s">
         <v>60</v>
       </c>
-      <c r="C33" s="121"/>
-      <c r="D33" s="121"/>
-      <c r="E33" s="121"/>
-      <c r="F33" s="121"/>
-      <c r="G33" s="121"/>
-      <c r="H33" s="121"/>
-      <c r="I33" s="122"/>
+      <c r="C33" s="152"/>
+      <c r="D33" s="152"/>
+      <c r="E33" s="152"/>
+      <c r="F33" s="152"/>
+      <c r="G33" s="152"/>
+      <c r="H33" s="152"/>
+      <c r="I33" s="153"/>
       <c r="J33" s="53"/>
       <c r="K33" s="54"/>
     </row>
-    <row r="34" spans="1:11" ht="18" customHeight="1" thickBot="1">
+    <row r="34" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="55"/>
       <c r="B34" s="55"/>
       <c r="C34" s="55"/>
@@ -3745,7 +3828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="18" customHeight="1" thickBot="1">
+    <row r="35" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="55"/>
       <c r="B35" s="55"/>
       <c r="C35" s="55"/>
@@ -3763,7 +3846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="18" customHeight="1" thickBot="1">
+    <row r="36" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E36" s="46"/>
       <c r="G36" s="47"/>
       <c r="H36" s="61"/>
@@ -3773,13 +3856,13 @@
       <c r="J36" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="K36" s="211">
+      <c r="K36" s="120">
         <f>K35/4</f>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="9.75" customHeight="1"/>
-    <row r="38" spans="1:11">
+    <row r="37" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="19" t="s">
         <v>21</v>
       </c>
@@ -3795,7 +3878,7 @@
       <c r="J38" s="19"/>
       <c r="K38" s="19"/>
     </row>
-    <row r="39" spans="1:11" ht="9" customHeight="1">
+    <row r="39" spans="1:11" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E39" s="46"/>
       <c r="G39" s="47"/>
       <c r="H39" s="47"/>
@@ -3803,21 +3886,27 @@
       <c r="J39" s="35"/>
       <c r="K39" s="49"/>
     </row>
-    <row r="44" spans="1:11" ht="12" customHeight="1"/>
-    <row r="45" spans="1:11" ht="13.5" customHeight="1"/>
+    <row r="44" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:K27"/>
     <mergeCell ref="J28:J30"/>
     <mergeCell ref="K28:K30"/>
     <mergeCell ref="C29:D29"/>
@@ -3830,23 +3919,17 @@
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="I28:I30"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:B30"/>
   </mergeCells>
   <conditionalFormatting sqref="K28:K35">
     <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
@@ -3870,30 +3953,30 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageLayout" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29:L35"/>
+    <sheetView showZeros="0" tabSelected="1" view="pageLayout" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11:L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" style="76" customWidth="1"/>
-    <col min="2" max="3" width="9.140625" style="76"/>
-    <col min="4" max="4" width="2.7109375" style="76" customWidth="1"/>
-    <col min="5" max="6" width="7.28515625" style="76" customWidth="1"/>
-    <col min="7" max="7" width="6.85546875" style="76" customWidth="1"/>
-    <col min="8" max="8" width="6.5703125" style="76" customWidth="1"/>
-    <col min="9" max="9" width="6.140625" style="76" customWidth="1"/>
-    <col min="10" max="11" width="7.28515625" style="76" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" style="76" customWidth="1"/>
-    <col min="13" max="13" width="7.28515625" style="76" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="76"/>
+    <col min="1" max="1" width="8.265625" style="76" customWidth="1"/>
+    <col min="2" max="3" width="9.1328125" style="76"/>
+    <col min="4" max="4" width="2.73046875" style="76" customWidth="1"/>
+    <col min="5" max="6" width="7.265625" style="76" customWidth="1"/>
+    <col min="7" max="7" width="6.86328125" style="76" customWidth="1"/>
+    <col min="8" max="8" width="6.59765625" style="76" customWidth="1"/>
+    <col min="9" max="9" width="6.1328125" style="76" customWidth="1"/>
+    <col min="10" max="11" width="7.265625" style="76" customWidth="1"/>
+    <col min="12" max="12" width="8.73046875" style="76" customWidth="1"/>
+    <col min="13" max="13" width="7.265625" style="76" hidden="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.1328125" style="76"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1"/>
-    <row r="2" spans="1:12" ht="24" customHeight="1" thickBot="1">
+    <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="77" t="s">
         <v>91</v>
       </c>
@@ -3905,7 +3988,7 @@
       <c r="K2" s="81"/>
       <c r="L2" s="81"/>
     </row>
-    <row r="3" spans="1:12" ht="24" customHeight="1" thickBot="1">
+    <row r="3" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="82" t="s">
         <v>79</v>
       </c>
@@ -3917,7 +4000,7 @@
       <c r="K3" s="81"/>
       <c r="L3" s="81"/>
     </row>
-    <row r="4" spans="1:12" ht="24" customHeight="1" thickBot="1">
+    <row r="4" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="83" t="s">
         <v>9</v>
       </c>
@@ -3934,15 +4017,15 @@
       <c r="K4" s="81"/>
       <c r="L4" s="81"/>
     </row>
-    <row r="5" spans="1:12" ht="24" customHeight="1" thickBot="1">
+    <row r="5" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="85" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="85"/>
-      <c r="C5" s="197"/>
-      <c r="D5" s="197"/>
-      <c r="E5" s="197"/>
-      <c r="F5" s="197"/>
+      <c r="C5" s="179"/>
+      <c r="D5" s="179"/>
+      <c r="E5" s="179"/>
+      <c r="F5" s="179"/>
       <c r="H5" s="78"/>
       <c r="I5" s="79" t="s">
         <v>8</v>
@@ -3951,7 +4034,7 @@
       <c r="K5" s="81"/>
       <c r="L5" s="81"/>
     </row>
-    <row r="6" spans="1:12" ht="19.5" customHeight="1">
+    <row r="6" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="76" t="s">
         <v>46</v>
       </c>
@@ -3959,98 +4042,98 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1">
+    <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="85" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="85"/>
-      <c r="C7" s="197"/>
-      <c r="D7" s="197"/>
-      <c r="E7" s="197"/>
-      <c r="F7" s="197"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
       <c r="H7" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="200"/>
-      <c r="J7" s="201"/>
-      <c r="K7" s="201"/>
-      <c r="L7" s="201"/>
-    </row>
-    <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1">
+      <c r="I7" s="182"/>
+      <c r="J7" s="183"/>
+      <c r="K7" s="183"/>
+      <c r="L7" s="183"/>
+    </row>
+    <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="83" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="83"/>
-      <c r="C8" s="202"/>
-      <c r="D8" s="202"/>
-      <c r="E8" s="202"/>
-      <c r="F8" s="202"/>
+      <c r="C8" s="184"/>
+      <c r="D8" s="184"/>
+      <c r="E8" s="184"/>
+      <c r="F8" s="184"/>
       <c r="H8" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="198"/>
-      <c r="J8" s="199"/>
-      <c r="K8" s="199"/>
-      <c r="L8" s="199"/>
-    </row>
-    <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1">
+      <c r="I8" s="180"/>
+      <c r="J8" s="181"/>
+      <c r="K8" s="181"/>
+      <c r="L8" s="181"/>
+    </row>
+    <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="85" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="85"/>
-      <c r="C9" s="197"/>
-      <c r="D9" s="197"/>
-      <c r="E9" s="197"/>
-      <c r="F9" s="197"/>
+      <c r="C9" s="179"/>
+      <c r="D9" s="179"/>
+      <c r="E9" s="179"/>
+      <c r="F9" s="179"/>
       <c r="H9" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="198"/>
-      <c r="J9" s="199"/>
-      <c r="K9" s="199"/>
-      <c r="L9" s="199"/>
-    </row>
-    <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1">
+      <c r="I9" s="180"/>
+      <c r="J9" s="181"/>
+      <c r="K9" s="181"/>
+      <c r="L9" s="181"/>
+    </row>
+    <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="85" t="s">
         <v>44</v>
       </c>
       <c r="B10" s="85"/>
-      <c r="C10" s="197"/>
-      <c r="D10" s="197"/>
-      <c r="E10" s="197"/>
-      <c r="F10" s="197"/>
+      <c r="C10" s="179"/>
+      <c r="D10" s="179"/>
+      <c r="E10" s="179"/>
+      <c r="F10" s="179"/>
       <c r="H10" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="198"/>
-      <c r="J10" s="199"/>
-      <c r="K10" s="199"/>
-      <c r="L10" s="199"/>
-    </row>
-    <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1">
+      <c r="I10" s="180"/>
+      <c r="J10" s="181"/>
+      <c r="K10" s="181"/>
+      <c r="L10" s="181"/>
+    </row>
+    <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="198"/>
-      <c r="J11" s="199"/>
-      <c r="K11" s="199"/>
-      <c r="L11" s="199"/>
-    </row>
-    <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1">
+      <c r="I11" s="180"/>
+      <c r="J11" s="181"/>
+      <c r="K11" s="181"/>
+      <c r="L11" s="181"/>
+    </row>
+    <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="89"/>
       <c r="H12" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="198"/>
-      <c r="J12" s="199"/>
-      <c r="K12" s="199"/>
-      <c r="L12" s="199"/>
-    </row>
-    <row r="13" spans="1:12" ht="13.5" customHeight="1">
+      <c r="I12" s="180"/>
+      <c r="J12" s="181"/>
+      <c r="K12" s="181"/>
+      <c r="L12" s="181"/>
+    </row>
+    <row r="13" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="90"/>
       <c r="B13" s="91"/>
     </row>
-    <row r="14" spans="1:12" ht="15">
+    <row r="14" spans="1:12" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A14" s="50" t="s">
         <v>54</v>
       </c>
@@ -4060,95 +4143,95 @@
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
-      <c r="H14" s="154" t="s">
+      <c r="H14" s="127" t="s">
         <v>32</v>
       </c>
-      <c r="I14" s="155"/>
-      <c r="J14" s="156" t="s">
+      <c r="I14" s="128"/>
+      <c r="J14" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="K14" s="157"/>
-      <c r="L14" s="158"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="182" t="s">
+      <c r="K14" s="130"/>
+      <c r="L14" s="131"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="185" t="s">
         <v>80</v>
       </c>
-      <c r="B15" s="194" t="s">
+      <c r="B15" s="188" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="194" t="s">
+      <c r="C15" s="188" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="194"/>
-      <c r="E15" s="194"/>
-      <c r="F15" s="214" t="s">
+      <c r="D15" s="188"/>
+      <c r="E15" s="188"/>
+      <c r="F15" s="190" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="215"/>
-      <c r="H15" s="149"/>
-      <c r="I15" s="150"/>
-      <c r="J15" s="151">
+      <c r="G15" s="191"/>
+      <c r="H15" s="146"/>
+      <c r="I15" s="147"/>
+      <c r="J15" s="148">
         <v>0.2</v>
       </c>
-      <c r="K15" s="190"/>
-      <c r="L15" s="192">
+      <c r="K15" s="192"/>
+      <c r="L15" s="194">
         <f>K15*0.2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="46.5" customHeight="1">
-      <c r="A16" s="196"/>
-      <c r="B16" s="194"/>
-      <c r="C16" s="194" t="s">
+    <row r="16" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="186"/>
+      <c r="B16" s="188"/>
+      <c r="C16" s="188" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="194"/>
-      <c r="E16" s="194"/>
-      <c r="F16" s="216" t="s">
+      <c r="D16" s="188"/>
+      <c r="E16" s="188"/>
+      <c r="F16" s="196" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="217"/>
-      <c r="H16" s="135"/>
-      <c r="I16" s="136"/>
-      <c r="J16" s="152"/>
-      <c r="K16" s="190"/>
-      <c r="L16" s="192"/>
-    </row>
-    <row r="17" spans="1:13" ht="40.5" customHeight="1">
-      <c r="A17" s="183"/>
-      <c r="B17" s="195"/>
-      <c r="C17" s="195" t="s">
+      <c r="G16" s="197"/>
+      <c r="H16" s="139"/>
+      <c r="I16" s="140"/>
+      <c r="J16" s="149"/>
+      <c r="K16" s="192"/>
+      <c r="L16" s="194"/>
+    </row>
+    <row r="17" spans="1:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="187"/>
+      <c r="B17" s="189"/>
+      <c r="C17" s="189" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="195"/>
-      <c r="E17" s="195"/>
-      <c r="F17" s="216" t="s">
+      <c r="D17" s="189"/>
+      <c r="E17" s="189"/>
+      <c r="F17" s="196" t="s">
         <v>56</v>
       </c>
-      <c r="G17" s="217"/>
-      <c r="H17" s="147"/>
-      <c r="I17" s="148"/>
-      <c r="J17" s="153"/>
-      <c r="K17" s="191"/>
-      <c r="L17" s="193"/>
-    </row>
-    <row r="18" spans="1:13" ht="27.75" customHeight="1">
-      <c r="A18" s="182" t="s">
+      <c r="G17" s="197"/>
+      <c r="H17" s="142"/>
+      <c r="I17" s="143"/>
+      <c r="J17" s="150"/>
+      <c r="K17" s="193"/>
+      <c r="L17" s="195"/>
+    </row>
+    <row r="18" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="185" t="s">
         <v>81</v>
       </c>
-      <c r="B18" s="184" t="s">
+      <c r="B18" s="198" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="185"/>
-      <c r="D18" s="185"/>
-      <c r="E18" s="186"/>
-      <c r="F18" s="214" t="s">
+      <c r="C18" s="199"/>
+      <c r="D18" s="199"/>
+      <c r="E18" s="200"/>
+      <c r="F18" s="190" t="s">
         <v>59</v>
       </c>
-      <c r="G18" s="218"/>
-      <c r="H18" s="135"/>
-      <c r="I18" s="136"/>
+      <c r="G18" s="201"/>
+      <c r="H18" s="139"/>
+      <c r="I18" s="140"/>
       <c r="J18" s="73">
         <v>0.4</v>
       </c>
@@ -4159,20 +4242,20 @@
       </c>
       <c r="M18" s="94"/>
     </row>
-    <row r="19" spans="1:13" ht="54.75" customHeight="1" thickBot="1">
-      <c r="A19" s="183"/>
-      <c r="B19" s="187" t="s">
+    <row r="19" spans="1:13" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="187"/>
+      <c r="B19" s="202" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="188"/>
-      <c r="D19" s="188"/>
-      <c r="E19" s="189"/>
-      <c r="F19" s="219" t="s">
+      <c r="C19" s="203"/>
+      <c r="D19" s="203"/>
+      <c r="E19" s="204"/>
+      <c r="F19" s="205" t="s">
         <v>23</v>
       </c>
-      <c r="G19" s="220"/>
-      <c r="H19" s="135"/>
-      <c r="I19" s="136"/>
+      <c r="G19" s="206"/>
+      <c r="H19" s="139"/>
+      <c r="I19" s="140"/>
       <c r="J19" s="73">
         <v>0.4</v>
       </c>
@@ -4182,25 +4265,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" ht="13.15" x14ac:dyDescent="0.3">
       <c r="A20" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="120" t="s">
+      <c r="B20" s="151" t="s">
         <v>82</v>
       </c>
-      <c r="C20" s="121"/>
-      <c r="D20" s="121"/>
-      <c r="E20" s="121"/>
-      <c r="F20" s="121"/>
-      <c r="G20" s="121"/>
-      <c r="H20" s="121"/>
-      <c r="I20" s="121"/>
-      <c r="J20" s="122"/>
+      <c r="C20" s="152"/>
+      <c r="D20" s="152"/>
+      <c r="E20" s="152"/>
+      <c r="F20" s="152"/>
+      <c r="G20" s="152"/>
+      <c r="H20" s="152"/>
+      <c r="I20" s="152"/>
+      <c r="J20" s="153"/>
       <c r="K20" s="92"/>
       <c r="L20" s="95"/>
     </row>
-    <row r="21" spans="1:13" ht="12.75" customHeight="1">
+    <row r="21" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="96"/>
       <c r="B21" s="96"/>
       <c r="C21" s="96"/>
@@ -4217,7 +4300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="12.75" customHeight="1">
+    <row r="22" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="100" t="s">
         <v>79</v>
       </c>
@@ -4233,91 +4316,91 @@
       <c r="K22" s="98"/>
       <c r="L22" s="98"/>
     </row>
-    <row r="23" spans="1:13" ht="12.75" customHeight="1">
-      <c r="A23" s="173" t="s">
+    <row r="23" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="207" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="174"/>
-      <c r="C23" s="174"/>
-      <c r="D23" s="174"/>
-      <c r="E23" s="174"/>
-      <c r="F23" s="174"/>
-      <c r="G23" s="174"/>
-      <c r="H23" s="174"/>
-      <c r="I23" s="174"/>
-      <c r="J23" s="174"/>
-      <c r="K23" s="174"/>
-      <c r="L23" s="175"/>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="176"/>
-      <c r="B24" s="177"/>
-      <c r="C24" s="177"/>
-      <c r="D24" s="177"/>
-      <c r="E24" s="177"/>
-      <c r="F24" s="177"/>
-      <c r="G24" s="177"/>
-      <c r="H24" s="177"/>
-      <c r="I24" s="177"/>
-      <c r="J24" s="177"/>
-      <c r="K24" s="177"/>
-      <c r="L24" s="178"/>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="176"/>
-      <c r="B25" s="177"/>
-      <c r="C25" s="177"/>
-      <c r="D25" s="177"/>
-      <c r="E25" s="177"/>
-      <c r="F25" s="177"/>
-      <c r="G25" s="177"/>
-      <c r="H25" s="177"/>
-      <c r="I25" s="177"/>
-      <c r="J25" s="177"/>
-      <c r="K25" s="177"/>
-      <c r="L25" s="178"/>
-    </row>
-    <row r="26" spans="1:13" ht="9" customHeight="1">
-      <c r="A26" s="176"/>
-      <c r="B26" s="177"/>
-      <c r="C26" s="177"/>
-      <c r="D26" s="177"/>
-      <c r="E26" s="177"/>
-      <c r="F26" s="177"/>
-      <c r="G26" s="177"/>
-      <c r="H26" s="177"/>
-      <c r="I26" s="177"/>
-      <c r="J26" s="177"/>
-      <c r="K26" s="177"/>
-      <c r="L26" s="178"/>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="179"/>
-      <c r="B27" s="180"/>
-      <c r="C27" s="180"/>
-      <c r="D27" s="180"/>
-      <c r="E27" s="180"/>
-      <c r="F27" s="180"/>
-      <c r="G27" s="180"/>
-      <c r="H27" s="180"/>
-      <c r="I27" s="180"/>
-      <c r="J27" s="180"/>
-      <c r="K27" s="180"/>
-      <c r="L27" s="181"/>
-    </row>
-    <row r="29" spans="1:13" ht="14.25">
-      <c r="A29" s="171" t="s">
+      <c r="B23" s="208"/>
+      <c r="C23" s="208"/>
+      <c r="D23" s="208"/>
+      <c r="E23" s="208"/>
+      <c r="F23" s="208"/>
+      <c r="G23" s="208"/>
+      <c r="H23" s="208"/>
+      <c r="I23" s="208"/>
+      <c r="J23" s="208"/>
+      <c r="K23" s="208"/>
+      <c r="L23" s="209"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="210"/>
+      <c r="B24" s="211"/>
+      <c r="C24" s="211"/>
+      <c r="D24" s="211"/>
+      <c r="E24" s="211"/>
+      <c r="F24" s="211"/>
+      <c r="G24" s="211"/>
+      <c r="H24" s="211"/>
+      <c r="I24" s="211"/>
+      <c r="J24" s="211"/>
+      <c r="K24" s="211"/>
+      <c r="L24" s="212"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="210"/>
+      <c r="B25" s="211"/>
+      <c r="C25" s="211"/>
+      <c r="D25" s="211"/>
+      <c r="E25" s="211"/>
+      <c r="F25" s="211"/>
+      <c r="G25" s="211"/>
+      <c r="H25" s="211"/>
+      <c r="I25" s="211"/>
+      <c r="J25" s="211"/>
+      <c r="K25" s="211"/>
+      <c r="L25" s="212"/>
+    </row>
+    <row r="26" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="210"/>
+      <c r="B26" s="211"/>
+      <c r="C26" s="211"/>
+      <c r="D26" s="211"/>
+      <c r="E26" s="211"/>
+      <c r="F26" s="211"/>
+      <c r="G26" s="211"/>
+      <c r="H26" s="211"/>
+      <c r="I26" s="211"/>
+      <c r="J26" s="211"/>
+      <c r="K26" s="211"/>
+      <c r="L26" s="212"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="213"/>
+      <c r="B27" s="214"/>
+      <c r="C27" s="214"/>
+      <c r="D27" s="214"/>
+      <c r="E27" s="214"/>
+      <c r="F27" s="214"/>
+      <c r="G27" s="214"/>
+      <c r="H27" s="214"/>
+      <c r="I27" s="214"/>
+      <c r="J27" s="214"/>
+      <c r="K27" s="214"/>
+      <c r="L27" s="215"/>
+    </row>
+    <row r="29" spans="1:13" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A29" s="216" t="s">
         <v>83</v>
       </c>
-      <c r="B29" s="171"/>
-      <c r="C29" s="171"/>
-      <c r="D29" s="171"/>
-      <c r="E29" s="171"/>
-      <c r="F29" s="171"/>
-      <c r="G29" s="171"/>
-      <c r="H29" s="171"/>
-      <c r="I29" s="221"/>
-      <c r="J29" s="221"/>
+      <c r="B29" s="216"/>
+      <c r="C29" s="216"/>
+      <c r="D29" s="216"/>
+      <c r="E29" s="216"/>
+      <c r="F29" s="216"/>
+      <c r="G29" s="216"/>
+      <c r="H29" s="216"/>
+      <c r="I29" s="217"/>
+      <c r="J29" s="217"/>
       <c r="K29" s="101" t="s">
         <v>84</v>
       </c>
@@ -4326,19 +4409,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="12" customHeight="1">
-      <c r="A30" s="171" t="s">
+    <row r="30" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="216" t="s">
         <v>85</v>
       </c>
-      <c r="B30" s="171"/>
-      <c r="C30" s="171"/>
-      <c r="D30" s="171"/>
-      <c r="E30" s="171"/>
-      <c r="F30" s="171"/>
-      <c r="G30" s="171"/>
-      <c r="H30" s="171"/>
-      <c r="I30" s="221"/>
-      <c r="J30" s="221"/>
+      <c r="B30" s="216"/>
+      <c r="C30" s="216"/>
+      <c r="D30" s="216"/>
+      <c r="E30" s="216"/>
+      <c r="F30" s="216"/>
+      <c r="G30" s="216"/>
+      <c r="H30" s="216"/>
+      <c r="I30" s="217"/>
+      <c r="J30" s="217"/>
       <c r="K30" s="102" t="s">
         <v>84</v>
       </c>
@@ -4347,19 +4430,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A31" s="171" t="s">
+    <row r="31" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="216" t="s">
         <v>86</v>
       </c>
-      <c r="B31" s="171"/>
-      <c r="C31" s="171"/>
-      <c r="D31" s="171"/>
-      <c r="E31" s="171"/>
-      <c r="F31" s="171"/>
-      <c r="G31" s="171"/>
-      <c r="H31" s="171"/>
-      <c r="I31" s="221"/>
-      <c r="J31" s="221"/>
+      <c r="B31" s="216"/>
+      <c r="C31" s="216"/>
+      <c r="D31" s="216"/>
+      <c r="E31" s="216"/>
+      <c r="F31" s="216"/>
+      <c r="G31" s="216"/>
+      <c r="H31" s="216"/>
+      <c r="I31" s="217"/>
+      <c r="J31" s="217"/>
       <c r="K31" s="102" t="s">
         <v>92</v>
       </c>
@@ -4368,19 +4451,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="14.25">
-      <c r="A32" s="171" t="s">
+    <row r="32" spans="1:13" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A32" s="216" t="s">
         <v>87</v>
       </c>
-      <c r="B32" s="171"/>
-      <c r="C32" s="171"/>
-      <c r="D32" s="171"/>
-      <c r="E32" s="171"/>
-      <c r="F32" s="171"/>
-      <c r="G32" s="171"/>
-      <c r="H32" s="171"/>
-      <c r="I32" s="221"/>
-      <c r="J32" s="221"/>
+      <c r="B32" s="216"/>
+      <c r="C32" s="216"/>
+      <c r="D32" s="216"/>
+      <c r="E32" s="216"/>
+      <c r="F32" s="216"/>
+      <c r="G32" s="216"/>
+      <c r="H32" s="216"/>
+      <c r="I32" s="217"/>
+      <c r="J32" s="217"/>
       <c r="K32" s="102" t="s">
         <v>61</v>
       </c>
@@ -4389,22 +4472,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="14.25">
-      <c r="A33" s="171" t="s">
+    <row r="33" spans="1:12" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A33" s="216" t="s">
         <v>88</v>
       </c>
-      <c r="B33" s="171"/>
-      <c r="C33" s="171"/>
-      <c r="D33" s="171"/>
-      <c r="E33" s="171"/>
-      <c r="F33" s="171"/>
-      <c r="G33" s="171"/>
-      <c r="H33" s="171"/>
-      <c r="I33" s="172">
+      <c r="B33" s="216"/>
+      <c r="C33" s="216"/>
+      <c r="D33" s="216"/>
+      <c r="E33" s="216"/>
+      <c r="F33" s="216"/>
+      <c r="G33" s="216"/>
+      <c r="H33" s="216"/>
+      <c r="I33" s="221">
         <f>L21</f>
         <v>0</v>
       </c>
-      <c r="J33" s="172"/>
+      <c r="J33" s="221"/>
       <c r="K33" s="102" t="s">
         <v>92</v>
       </c>
@@ -4413,7 +4496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="15" thickBot="1">
+    <row r="34" spans="1:12" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="96"/>
       <c r="F34" s="82"/>
       <c r="I34" s="97"/>
@@ -4426,26 +4509,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="15" thickBot="1">
+    <row r="35" spans="1:12" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="96"/>
       <c r="B35" s="96"/>
       <c r="C35" s="96"/>
       <c r="D35" s="96"/>
       <c r="E35" s="96"/>
-      <c r="F35" s="168" t="s">
+      <c r="F35" s="218" t="s">
         <v>90</v>
       </c>
-      <c r="G35" s="169"/>
-      <c r="H35" s="169"/>
-      <c r="I35" s="169"/>
-      <c r="J35" s="169"/>
-      <c r="K35" s="170"/>
+      <c r="G35" s="219"/>
+      <c r="H35" s="219"/>
+      <c r="I35" s="219"/>
+      <c r="J35" s="219"/>
+      <c r="K35" s="220"/>
       <c r="L35" s="107">
         <f>L34/10</f>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="14.25">
+    <row r="36" spans="1:12" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A36" s="96"/>
       <c r="B36" s="96"/>
       <c r="C36" s="96"/>
@@ -4459,7 +4542,7 @@
       <c r="K36" s="82"/>
       <c r="L36" s="106"/>
     </row>
-    <row r="37" spans="1:12" ht="14.25">
+    <row r="37" spans="1:12" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A37" s="96"/>
       <c r="B37" s="96"/>
       <c r="C37" s="96"/>
@@ -4473,7 +4556,7 @@
       <c r="K37" s="82"/>
       <c r="L37" s="106"/>
     </row>
-    <row r="38" spans="1:12" ht="14.25">
+    <row r="38" spans="1:12" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A38" s="96"/>
       <c r="B38" s="96"/>
       <c r="C38" s="96"/>
@@ -4487,7 +4570,7 @@
       <c r="K38" s="82"/>
       <c r="L38" s="106"/>
     </row>
-    <row r="39" spans="1:12" ht="14.25">
+    <row r="39" spans="1:12" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A39" s="96"/>
       <c r="B39" s="96"/>
       <c r="C39" s="96"/>
@@ -4501,7 +4584,7 @@
       <c r="K39" s="82"/>
       <c r="L39" s="106"/>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="F40" s="108"/>
       <c r="H40" s="109"/>
       <c r="I40" s="109"/>
@@ -4509,7 +4592,7 @@
       <c r="K40" s="111"/>
       <c r="L40" s="112"/>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="83" t="s">
         <v>21</v>
       </c>
@@ -4526,7 +4609,7 @@
       <c r="K42" s="83"/>
       <c r="L42" s="83"/>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="F43" s="108"/>
       <c r="H43" s="109"/>
       <c r="I43" s="109"/>
@@ -4534,7 +4617,7 @@
       <c r="K43" s="111"/>
       <c r="L43" s="112"/>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="94"/>
       <c r="B44" s="94"/>
       <c r="C44" s="94"/>
@@ -4550,24 +4633,26 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="F35:K35"/>
+    <mergeCell ref="A31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="B20:J20"/>
+    <mergeCell ref="A23:L27"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
     <mergeCell ref="K15:K17"/>
     <mergeCell ref="L15:L17"/>
     <mergeCell ref="C16:E16"/>
@@ -4577,26 +4662,24 @@
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="H17:I17"/>
     <mergeCell ref="J15:J17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="B20:J20"/>
-    <mergeCell ref="A23:L27"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="A30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="F35:K35"/>
-    <mergeCell ref="A31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="A32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="A33:H33"/>
-    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="I8:L8"/>
   </mergeCells>
   <conditionalFormatting sqref="L15:L39 I33:J33">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
@@ -4622,12 +4705,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4635,6 +4720,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100570C130F412EDB4EBF3E80DF6A9149FD" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cfaa3b10b9be17ef9f56bd19dc71004c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ddb0c952b897a810c8a4e377cff6bff8" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4700,25 +4803,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28A807C1-6DB8-4C6A-8DCB-8B5F61EFE299}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64838F1D-7ECA-4F32-944F-43492487C498}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A00BD0D-8423-4FFE-92A4-D273D2078383}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4733,21 +4835,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64838F1D-7ECA-4F32-944F-43492487C498}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28A807C1-6DB8-4C6A-8DCB-8B5F61EFE299}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/mallar/Protokoll_2016_skritt_lag_sv-r_mellan.XLSX
+++ b/mallar/Protokoll_2016_skritt_lag_sv-r_mellan.XLSX
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magnus.sandberg\Documents\Visual Studio 2015\Projects\VoltigeClosedXML\mallar\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{803B5BBC-FD37-43C5-8AF6-9337E020B0D9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15555" windowHeight="5460" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15555" windowHeight="5460" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="33" r:id="rId1"/>
@@ -36,6 +37,10 @@
     <definedName name="firstvaulter" localSheetId="4">'Skritt lagkür'!$I$7</definedName>
     <definedName name="firstvaulter" localSheetId="1">'Skritt mellan grund'!$H$7</definedName>
     <definedName name="firstvaulter" localSheetId="3">'Skritt srlag grund'!$H$7</definedName>
+    <definedName name="Hästpoäng" localSheetId="2">'Skritt jrlag grund '!$K$34</definedName>
+    <definedName name="Hästpoäng" localSheetId="4">'Skritt lagkür'!$L$21</definedName>
+    <definedName name="Hästpoäng" localSheetId="1">'Skritt mellan grund'!$K$35</definedName>
+    <definedName name="Hästpoäng" localSheetId="3">'Skritt srlag grund'!$K$34</definedName>
     <definedName name="id" localSheetId="2">'Skritt jrlag grund '!$L$2</definedName>
     <definedName name="id" localSheetId="4">'Skritt lagkür'!$M$2</definedName>
     <definedName name="id" localSheetId="1">'Skritt mellan grund'!$L$2</definedName>
@@ -53,7 +58,14 @@
     <definedName name="result" localSheetId="1">'Skritt mellan grund'!$K$38</definedName>
     <definedName name="result" localSheetId="3">'Skritt srlag grund'!$K$36</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179021"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -382,7 +394,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _k_r_-;\-* #,##0.00\ _k_r_-;_-* &quot;-&quot;??\ _k_r_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -1130,6 +1142,149 @@
     <xf numFmtId="167" fontId="4" fillId="0" borderId="16" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="11" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="20" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="11" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="20" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1144,162 +1299,133 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="11" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="20" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="11" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="11" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="20" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="11" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="20" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="20" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1316,131 +1442,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="11" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="20" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="11" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="20" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="9">
-    <cellStyle name="Dezimal 2" xfId="1"/>
-    <cellStyle name="Dezimal 2 2" xfId="3"/>
+    <cellStyle name="Dezimal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Dezimal 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="4"/>
-    <cellStyle name="Normal 3" xfId="5"/>
-    <cellStyle name="Normal 4" xfId="7"/>
-    <cellStyle name="Standard 2" xfId="2"/>
-    <cellStyle name="Tusental 2" xfId="6"/>
-    <cellStyle name="Tusental 3" xfId="8"/>
+    <cellStyle name="Normal 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 4" xfId="7" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Standard 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Tusental 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Tusental 3" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
   </cellStyles>
   <dxfs count="8">
     <dxf>
@@ -1860,7 +1872,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1973,11 +1985,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" topLeftCell="E1" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView showZeros="0" view="pageLayout" topLeftCell="E21" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -2035,9 +2047,9 @@
         <v>10</v>
       </c>
       <c r="B5" s="21"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
-      <c r="E5" s="121"/>
+      <c r="C5" s="168"/>
+      <c r="D5" s="168"/>
+      <c r="E5" s="168"/>
       <c r="G5" s="14"/>
       <c r="H5" s="15" t="s">
         <v>8</v>
@@ -2059,83 +2071,83 @@
         <v>11</v>
       </c>
       <c r="B7" s="21"/>
-      <c r="C7" s="121"/>
-      <c r="D7" s="121"/>
-      <c r="E7" s="121"/>
+      <c r="C7" s="168"/>
+      <c r="D7" s="168"/>
+      <c r="E7" s="168"/>
       <c r="G7" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="H7" s="124"/>
-      <c r="I7" s="125"/>
-      <c r="J7" s="125"/>
-      <c r="K7" s="125"/>
+      <c r="H7" s="171"/>
+      <c r="I7" s="172"/>
+      <c r="J7" s="172"/>
+      <c r="K7" s="172"/>
     </row>
     <row r="8" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="19"/>
-      <c r="C8" s="126"/>
-      <c r="D8" s="126"/>
-      <c r="E8" s="126"/>
+      <c r="C8" s="173"/>
+      <c r="D8" s="173"/>
+      <c r="E8" s="173"/>
       <c r="G8" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="H8" s="122"/>
-      <c r="I8" s="123"/>
-      <c r="J8" s="123"/>
-      <c r="K8" s="123"/>
+      <c r="H8" s="169"/>
+      <c r="I8" s="170"/>
+      <c r="J8" s="170"/>
+      <c r="K8" s="170"/>
     </row>
     <row r="9" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="21"/>
-      <c r="C9" s="121"/>
-      <c r="D9" s="121"/>
-      <c r="E9" s="121"/>
+      <c r="C9" s="168"/>
+      <c r="D9" s="168"/>
+      <c r="E9" s="168"/>
       <c r="G9" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="122"/>
-      <c r="I9" s="123"/>
-      <c r="J9" s="123"/>
-      <c r="K9" s="123"/>
+      <c r="H9" s="169"/>
+      <c r="I9" s="170"/>
+      <c r="J9" s="170"/>
+      <c r="K9" s="170"/>
     </row>
     <row r="10" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
         <v>44</v>
       </c>
       <c r="B10" s="21"/>
-      <c r="C10" s="121"/>
-      <c r="D10" s="121"/>
-      <c r="E10" s="121"/>
+      <c r="C10" s="168"/>
+      <c r="D10" s="168"/>
+      <c r="E10" s="168"/>
       <c r="G10" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="122"/>
-      <c r="I10" s="123"/>
-      <c r="J10" s="123"/>
-      <c r="K10" s="123"/>
+      <c r="H10" s="169"/>
+      <c r="I10" s="170"/>
+      <c r="J10" s="170"/>
+      <c r="K10" s="170"/>
     </row>
     <row r="11" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G11" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="122"/>
-      <c r="I11" s="123"/>
-      <c r="J11" s="123"/>
-      <c r="K11" s="123"/>
+      <c r="H11" s="169"/>
+      <c r="I11" s="170"/>
+      <c r="J11" s="170"/>
+      <c r="K11" s="170"/>
     </row>
     <row r="12" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="28"/>
       <c r="G12" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="H12" s="122"/>
-      <c r="I12" s="123"/>
-      <c r="J12" s="123"/>
-      <c r="K12" s="123"/>
+      <c r="H12" s="169"/>
+      <c r="I12" s="170"/>
+      <c r="J12" s="170"/>
+      <c r="K12" s="170"/>
     </row>
     <row r="13" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="29"/>
@@ -2165,11 +2177,11 @@
       </c>
     </row>
     <row r="15" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="154" t="s">
+      <c r="A15" s="124" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="155"/>
-      <c r="C15" s="155"/>
+      <c r="B15" s="125"/>
+      <c r="C15" s="125"/>
       <c r="D15" s="3"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -2183,11 +2195,11 @@
       </c>
     </row>
     <row r="16" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="154" t="s">
+      <c r="A16" s="124" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="155"/>
-      <c r="C16" s="155"/>
+      <c r="B16" s="125"/>
+      <c r="C16" s="125"/>
       <c r="D16" s="3"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -2201,11 +2213,11 @@
       </c>
     </row>
     <row r="17" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="156" t="s">
+      <c r="A17" s="126" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="155"/>
-      <c r="C17" s="155"/>
+      <c r="B17" s="125"/>
+      <c r="C17" s="125"/>
       <c r="D17" s="3"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -2219,12 +2231,12 @@
       </c>
     </row>
     <row r="18" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="154" t="s">
+      <c r="A18" s="124" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="155"/>
-      <c r="C18" s="155"/>
-      <c r="D18" s="157"/>
+      <c r="B18" s="125"/>
+      <c r="C18" s="125"/>
+      <c r="D18" s="127"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
@@ -2237,11 +2249,11 @@
       </c>
     </row>
     <row r="19" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="154" t="s">
+      <c r="A19" s="124" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="155"/>
-      <c r="C19" s="155"/>
+      <c r="B19" s="125"/>
+      <c r="C19" s="125"/>
       <c r="D19" s="3"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -2255,12 +2267,12 @@
       </c>
     </row>
     <row r="20" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="158" t="s">
+      <c r="A20" s="128" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="159"/>
-      <c r="C20" s="159"/>
-      <c r="D20" s="160"/>
+      <c r="B20" s="129"/>
+      <c r="C20" s="129"/>
+      <c r="D20" s="130"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
@@ -2356,91 +2368,91 @@
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
-      <c r="G28" s="127" t="s">
+      <c r="G28" s="163" t="s">
         <v>32</v>
       </c>
-      <c r="H28" s="128"/>
-      <c r="I28" s="129" t="s">
+      <c r="H28" s="164"/>
+      <c r="I28" s="165" t="s">
         <v>45</v>
       </c>
-      <c r="J28" s="130"/>
-      <c r="K28" s="131"/>
+      <c r="J28" s="166"/>
+      <c r="K28" s="167"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="161" t="s">
+      <c r="A29" s="131" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="136" t="s">
+      <c r="B29" s="146" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="136" t="s">
+      <c r="C29" s="146" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="136"/>
-      <c r="E29" s="144" t="s">
+      <c r="D29" s="146"/>
+      <c r="E29" s="156" t="s">
         <v>18</v>
       </c>
-      <c r="F29" s="145"/>
-      <c r="G29" s="146"/>
-      <c r="H29" s="147"/>
-      <c r="I29" s="148">
+      <c r="F29" s="157"/>
+      <c r="G29" s="158"/>
+      <c r="H29" s="159"/>
+      <c r="I29" s="160">
         <v>0.2</v>
       </c>
-      <c r="J29" s="132"/>
-      <c r="K29" s="134">
+      <c r="J29" s="148"/>
+      <c r="K29" s="150">
         <f>J29*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="173"/>
-      <c r="B30" s="136"/>
-      <c r="C30" s="136" t="s">
+      <c r="A30" s="145"/>
+      <c r="B30" s="146"/>
+      <c r="C30" s="146" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="136"/>
-      <c r="E30" s="137" t="s">
+      <c r="D30" s="146"/>
+      <c r="E30" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="F30" s="138"/>
-      <c r="G30" s="139"/>
-      <c r="H30" s="140"/>
-      <c r="I30" s="149"/>
-      <c r="J30" s="132"/>
-      <c r="K30" s="134"/>
+      <c r="F30" s="153"/>
+      <c r="G30" s="138"/>
+      <c r="H30" s="139"/>
+      <c r="I30" s="161"/>
+      <c r="J30" s="148"/>
+      <c r="K30" s="150"/>
     </row>
     <row r="31" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="162"/>
-      <c r="B31" s="141"/>
-      <c r="C31" s="141" t="s">
+      <c r="A31" s="132"/>
+      <c r="B31" s="147"/>
+      <c r="C31" s="147" t="s">
         <v>17</v>
       </c>
-      <c r="D31" s="141"/>
-      <c r="E31" s="137" t="s">
+      <c r="D31" s="147"/>
+      <c r="E31" s="152" t="s">
         <v>56</v>
       </c>
-      <c r="F31" s="138"/>
-      <c r="G31" s="142"/>
-      <c r="H31" s="143"/>
-      <c r="I31" s="150"/>
-      <c r="J31" s="133"/>
-      <c r="K31" s="135"/>
+      <c r="F31" s="153"/>
+      <c r="G31" s="154"/>
+      <c r="H31" s="155"/>
+      <c r="I31" s="162"/>
+      <c r="J31" s="149"/>
+      <c r="K31" s="151"/>
     </row>
     <row r="32" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="161" t="s">
+      <c r="A32" s="131" t="s">
         <v>57</v>
       </c>
-      <c r="B32" s="163" t="s">
+      <c r="B32" s="133" t="s">
         <v>58</v>
       </c>
-      <c r="C32" s="164"/>
-      <c r="D32" s="165"/>
-      <c r="E32" s="166" t="s">
+      <c r="C32" s="134"/>
+      <c r="D32" s="135"/>
+      <c r="E32" s="136" t="s">
         <v>59</v>
       </c>
-      <c r="F32" s="167"/>
-      <c r="G32" s="139"/>
-      <c r="H32" s="140"/>
+      <c r="F32" s="137"/>
+      <c r="G32" s="138"/>
+      <c r="H32" s="139"/>
       <c r="I32" s="51">
         <v>0.4</v>
       </c>
@@ -2451,18 +2463,18 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="162"/>
-      <c r="B33" s="168" t="s">
+      <c r="A33" s="132"/>
+      <c r="B33" s="140" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="169"/>
-      <c r="D33" s="170"/>
-      <c r="E33" s="171" t="s">
+      <c r="C33" s="141"/>
+      <c r="D33" s="142"/>
+      <c r="E33" s="143" t="s">
         <v>23</v>
       </c>
-      <c r="F33" s="172"/>
-      <c r="G33" s="139"/>
-      <c r="H33" s="140"/>
+      <c r="F33" s="144"/>
+      <c r="G33" s="138"/>
+      <c r="H33" s="139"/>
       <c r="I33" s="51">
         <v>0.4</v>
       </c>
@@ -2476,16 +2488,16 @@
       <c r="A34" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="B34" s="151" t="s">
+      <c r="B34" s="121" t="s">
         <v>60</v>
       </c>
-      <c r="C34" s="152"/>
-      <c r="D34" s="152"/>
-      <c r="E34" s="152"/>
-      <c r="F34" s="152"/>
-      <c r="G34" s="152"/>
-      <c r="H34" s="152"/>
-      <c r="I34" s="153"/>
+      <c r="C34" s="122"/>
+      <c r="D34" s="122"/>
+      <c r="E34" s="122"/>
+      <c r="F34" s="122"/>
+      <c r="G34" s="122"/>
+      <c r="H34" s="122"/>
+      <c r="I34" s="123"/>
       <c r="J34" s="53"/>
       <c r="K34" s="54"/>
     </row>
@@ -2581,6 +2593,31 @@
     <row r="47" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="J29:J31"/>
+    <mergeCell ref="K29:K31"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:I31"/>
     <mergeCell ref="B34:I34"/>
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="A16:C16"/>
@@ -2597,31 +2634,6 @@
     <mergeCell ref="G33:H33"/>
     <mergeCell ref="A29:A31"/>
     <mergeCell ref="B29:B31"/>
-    <mergeCell ref="J29:J31"/>
-    <mergeCell ref="K29:K31"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:I31"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="H8:K8"/>
   </mergeCells>
   <conditionalFormatting sqref="K29:K37">
     <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
@@ -2645,11 +2657,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" topLeftCell="F1" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L1048576"/>
+    <sheetView showZeros="0" view="pageLayout" topLeftCell="F29" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -2710,9 +2722,9 @@
         <v>10</v>
       </c>
       <c r="B5" s="21"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
-      <c r="E5" s="121"/>
+      <c r="C5" s="168"/>
+      <c r="D5" s="168"/>
+      <c r="E5" s="168"/>
       <c r="G5" s="14"/>
       <c r="H5" s="15" t="s">
         <v>8</v>
@@ -2734,83 +2746,83 @@
         <v>11</v>
       </c>
       <c r="B7" s="21"/>
-      <c r="C7" s="121"/>
-      <c r="D7" s="121"/>
-      <c r="E7" s="121"/>
+      <c r="C7" s="168"/>
+      <c r="D7" s="168"/>
+      <c r="E7" s="168"/>
       <c r="G7" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="H7" s="124"/>
-      <c r="I7" s="125"/>
-      <c r="J7" s="125"/>
-      <c r="K7" s="125"/>
+      <c r="H7" s="171"/>
+      <c r="I7" s="172"/>
+      <c r="J7" s="172"/>
+      <c r="K7" s="172"/>
     </row>
     <row r="8" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="19"/>
-      <c r="C8" s="126"/>
-      <c r="D8" s="126"/>
-      <c r="E8" s="126"/>
+      <c r="C8" s="173"/>
+      <c r="D8" s="173"/>
+      <c r="E8" s="173"/>
       <c r="G8" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="H8" s="122"/>
-      <c r="I8" s="123"/>
-      <c r="J8" s="123"/>
-      <c r="K8" s="123"/>
+      <c r="H8" s="169"/>
+      <c r="I8" s="170"/>
+      <c r="J8" s="170"/>
+      <c r="K8" s="170"/>
     </row>
     <row r="9" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="21"/>
-      <c r="C9" s="121"/>
-      <c r="D9" s="121"/>
-      <c r="E9" s="121"/>
+      <c r="C9" s="168"/>
+      <c r="D9" s="168"/>
+      <c r="E9" s="168"/>
       <c r="G9" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="122"/>
-      <c r="I9" s="123"/>
-      <c r="J9" s="123"/>
-      <c r="K9" s="123"/>
+      <c r="H9" s="169"/>
+      <c r="I9" s="170"/>
+      <c r="J9" s="170"/>
+      <c r="K9" s="170"/>
     </row>
     <row r="10" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
         <v>44</v>
       </c>
       <c r="B10" s="21"/>
-      <c r="C10" s="121"/>
-      <c r="D10" s="121"/>
-      <c r="E10" s="121"/>
+      <c r="C10" s="168"/>
+      <c r="D10" s="168"/>
+      <c r="E10" s="168"/>
       <c r="G10" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="122"/>
-      <c r="I10" s="123"/>
-      <c r="J10" s="123"/>
-      <c r="K10" s="123"/>
+      <c r="H10" s="169"/>
+      <c r="I10" s="170"/>
+      <c r="J10" s="170"/>
+      <c r="K10" s="170"/>
     </row>
     <row r="11" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G11" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="122"/>
-      <c r="I11" s="123"/>
-      <c r="J11" s="123"/>
-      <c r="K11" s="123"/>
+      <c r="H11" s="169"/>
+      <c r="I11" s="170"/>
+      <c r="J11" s="170"/>
+      <c r="K11" s="170"/>
     </row>
     <row r="12" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="28"/>
       <c r="G12" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="H12" s="122"/>
-      <c r="I12" s="123"/>
-      <c r="J12" s="123"/>
-      <c r="K12" s="123"/>
+      <c r="H12" s="169"/>
+      <c r="I12" s="170"/>
+      <c r="J12" s="170"/>
+      <c r="K12" s="170"/>
     </row>
     <row r="13" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="29"/>
@@ -2840,11 +2852,11 @@
       </c>
     </row>
     <row r="15" spans="1:11" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="154" t="s">
+      <c r="A15" s="124" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="155"/>
-      <c r="C15" s="155"/>
+      <c r="B15" s="125"/>
+      <c r="C15" s="125"/>
       <c r="D15" s="3"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -2858,11 +2870,11 @@
       </c>
     </row>
     <row r="16" spans="1:11" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="154" t="s">
+      <c r="A16" s="124" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="155"/>
-      <c r="C16" s="155"/>
+      <c r="B16" s="125"/>
+      <c r="C16" s="125"/>
       <c r="D16" s="3"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -2876,11 +2888,11 @@
       </c>
     </row>
     <row r="17" spans="1:11" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="156" t="s">
+      <c r="A17" s="126" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="155"/>
-      <c r="C17" s="155"/>
+      <c r="B17" s="125"/>
+      <c r="C17" s="125"/>
       <c r="D17" s="3"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -2894,11 +2906,11 @@
       </c>
     </row>
     <row r="18" spans="1:11" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="175" t="s">
+      <c r="A18" s="174" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="176"/>
-      <c r="C18" s="176"/>
+      <c r="B18" s="175"/>
+      <c r="C18" s="175"/>
       <c r="D18" s="5"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -2912,11 +2924,11 @@
       </c>
     </row>
     <row r="19" spans="1:11" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="154" t="s">
+      <c r="A19" s="124" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="155"/>
-      <c r="C19" s="155"/>
+      <c r="B19" s="125"/>
+      <c r="C19" s="125"/>
       <c r="D19" s="3"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -2948,11 +2960,11 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="158" t="s">
+      <c r="A21" s="128" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="174"/>
-      <c r="C21" s="174"/>
+      <c r="B21" s="176"/>
+      <c r="C21" s="176"/>
       <c r="D21" s="7"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -3018,91 +3030,91 @@
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
-      <c r="G27" s="127" t="s">
+      <c r="G27" s="163" t="s">
         <v>32</v>
       </c>
-      <c r="H27" s="128"/>
-      <c r="I27" s="129" t="s">
+      <c r="H27" s="164"/>
+      <c r="I27" s="165" t="s">
         <v>45</v>
       </c>
-      <c r="J27" s="130"/>
-      <c r="K27" s="131"/>
+      <c r="J27" s="166"/>
+      <c r="K27" s="167"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="161" t="s">
+      <c r="A28" s="131" t="s">
         <v>55</v>
       </c>
-      <c r="B28" s="136" t="s">
+      <c r="B28" s="146" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="136" t="s">
+      <c r="C28" s="146" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="136"/>
-      <c r="E28" s="144" t="s">
+      <c r="D28" s="146"/>
+      <c r="E28" s="156" t="s">
         <v>18</v>
       </c>
-      <c r="F28" s="145"/>
-      <c r="G28" s="146"/>
-      <c r="H28" s="147"/>
-      <c r="I28" s="148">
+      <c r="F28" s="157"/>
+      <c r="G28" s="158"/>
+      <c r="H28" s="159"/>
+      <c r="I28" s="160">
         <v>0.2</v>
       </c>
-      <c r="J28" s="132"/>
-      <c r="K28" s="134">
+      <c r="J28" s="148"/>
+      <c r="K28" s="150">
         <f>J28*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="173"/>
-      <c r="B29" s="136"/>
-      <c r="C29" s="136" t="s">
+      <c r="A29" s="145"/>
+      <c r="B29" s="146"/>
+      <c r="C29" s="146" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="136"/>
-      <c r="E29" s="137" t="s">
+      <c r="D29" s="146"/>
+      <c r="E29" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="138"/>
-      <c r="G29" s="139"/>
-      <c r="H29" s="140"/>
-      <c r="I29" s="149"/>
-      <c r="J29" s="132"/>
-      <c r="K29" s="134"/>
+      <c r="F29" s="153"/>
+      <c r="G29" s="138"/>
+      <c r="H29" s="139"/>
+      <c r="I29" s="161"/>
+      <c r="J29" s="148"/>
+      <c r="K29" s="150"/>
     </row>
     <row r="30" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="162"/>
-      <c r="B30" s="141"/>
-      <c r="C30" s="141" t="s">
+      <c r="A30" s="132"/>
+      <c r="B30" s="147"/>
+      <c r="C30" s="147" t="s">
         <v>17</v>
       </c>
-      <c r="D30" s="141"/>
-      <c r="E30" s="137" t="s">
+      <c r="D30" s="147"/>
+      <c r="E30" s="152" t="s">
         <v>56</v>
       </c>
-      <c r="F30" s="138"/>
-      <c r="G30" s="142"/>
-      <c r="H30" s="143"/>
-      <c r="I30" s="150"/>
-      <c r="J30" s="133"/>
-      <c r="K30" s="135"/>
+      <c r="F30" s="153"/>
+      <c r="G30" s="154"/>
+      <c r="H30" s="155"/>
+      <c r="I30" s="162"/>
+      <c r="J30" s="149"/>
+      <c r="K30" s="151"/>
     </row>
     <row r="31" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="161" t="s">
+      <c r="A31" s="131" t="s">
         <v>57</v>
       </c>
-      <c r="B31" s="163" t="s">
+      <c r="B31" s="133" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="164"/>
-      <c r="D31" s="165"/>
-      <c r="E31" s="166" t="s">
+      <c r="C31" s="134"/>
+      <c r="D31" s="135"/>
+      <c r="E31" s="136" t="s">
         <v>59</v>
       </c>
-      <c r="F31" s="167"/>
-      <c r="G31" s="139"/>
-      <c r="H31" s="140"/>
+      <c r="F31" s="137"/>
+      <c r="G31" s="138"/>
+      <c r="H31" s="139"/>
       <c r="I31" s="51">
         <v>0.4</v>
       </c>
@@ -3113,18 +3125,18 @@
       </c>
     </row>
     <row r="32" spans="1:11" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="162"/>
-      <c r="B32" s="168" t="s">
+      <c r="A32" s="132"/>
+      <c r="B32" s="140" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="169"/>
-      <c r="D32" s="170"/>
-      <c r="E32" s="171" t="s">
+      <c r="C32" s="141"/>
+      <c r="D32" s="142"/>
+      <c r="E32" s="143" t="s">
         <v>23</v>
       </c>
-      <c r="F32" s="172"/>
-      <c r="G32" s="139"/>
-      <c r="H32" s="140"/>
+      <c r="F32" s="144"/>
+      <c r="G32" s="138"/>
+      <c r="H32" s="139"/>
       <c r="I32" s="51">
         <v>0.4</v>
       </c>
@@ -3138,16 +3150,16 @@
       <c r="A33" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="B33" s="151" t="s">
+      <c r="B33" s="121" t="s">
         <v>60</v>
       </c>
-      <c r="C33" s="152"/>
-      <c r="D33" s="152"/>
-      <c r="E33" s="152"/>
-      <c r="F33" s="152"/>
-      <c r="G33" s="152"/>
-      <c r="H33" s="152"/>
-      <c r="I33" s="153"/>
+      <c r="C33" s="122"/>
+      <c r="D33" s="122"/>
+      <c r="E33" s="122"/>
+      <c r="F33" s="122"/>
+      <c r="G33" s="122"/>
+      <c r="H33" s="122"/>
+      <c r="I33" s="123"/>
       <c r="J33" s="53"/>
       <c r="K33" s="54"/>
     </row>
@@ -3231,34 +3243,6 @@
     <row r="45" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="J28:J30"/>
-    <mergeCell ref="K28:K30"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:I30"/>
     <mergeCell ref="B33:I33"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="A19:C19"/>
@@ -3272,6 +3256,34 @@
     <mergeCell ref="G32:H32"/>
     <mergeCell ref="A28:A30"/>
     <mergeCell ref="B28:B30"/>
+    <mergeCell ref="J28:J30"/>
+    <mergeCell ref="K28:K30"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:I30"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="H8:K8"/>
   </mergeCells>
   <conditionalFormatting sqref="K28:K35">
     <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
@@ -3295,11 +3307,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" topLeftCell="E1" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L1048576"/>
+    <sheetView showZeros="0" view="pageLayout" topLeftCell="E25" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -3362,9 +3374,9 @@
         <v>10</v>
       </c>
       <c r="B5" s="21"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
-      <c r="E5" s="121"/>
+      <c r="C5" s="168"/>
+      <c r="D5" s="168"/>
+      <c r="E5" s="168"/>
       <c r="G5" s="14"/>
       <c r="H5" s="15" t="s">
         <v>8</v>
@@ -3386,83 +3398,83 @@
         <v>11</v>
       </c>
       <c r="B7" s="21"/>
-      <c r="C7" s="121"/>
-      <c r="D7" s="121"/>
-      <c r="E7" s="121"/>
+      <c r="C7" s="168"/>
+      <c r="D7" s="168"/>
+      <c r="E7" s="168"/>
       <c r="G7" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="H7" s="124"/>
-      <c r="I7" s="125"/>
-      <c r="J7" s="125"/>
-      <c r="K7" s="125"/>
+      <c r="H7" s="171"/>
+      <c r="I7" s="172"/>
+      <c r="J7" s="172"/>
+      <c r="K7" s="172"/>
     </row>
     <row r="8" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="19"/>
-      <c r="C8" s="126"/>
-      <c r="D8" s="126"/>
-      <c r="E8" s="126"/>
+      <c r="C8" s="173"/>
+      <c r="D8" s="173"/>
+      <c r="E8" s="173"/>
       <c r="G8" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="H8" s="122"/>
-      <c r="I8" s="123"/>
-      <c r="J8" s="123"/>
-      <c r="K8" s="123"/>
+      <c r="H8" s="169"/>
+      <c r="I8" s="170"/>
+      <c r="J8" s="170"/>
+      <c r="K8" s="170"/>
     </row>
     <row r="9" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="21"/>
-      <c r="C9" s="121"/>
-      <c r="D9" s="121"/>
-      <c r="E9" s="121"/>
+      <c r="C9" s="168"/>
+      <c r="D9" s="168"/>
+      <c r="E9" s="168"/>
       <c r="G9" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="122"/>
-      <c r="I9" s="123"/>
-      <c r="J9" s="123"/>
-      <c r="K9" s="123"/>
+      <c r="H9" s="169"/>
+      <c r="I9" s="170"/>
+      <c r="J9" s="170"/>
+      <c r="K9" s="170"/>
     </row>
     <row r="10" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
         <v>44</v>
       </c>
       <c r="B10" s="21"/>
-      <c r="C10" s="121"/>
-      <c r="D10" s="121"/>
-      <c r="E10" s="121"/>
+      <c r="C10" s="168"/>
+      <c r="D10" s="168"/>
+      <c r="E10" s="168"/>
       <c r="G10" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="122"/>
-      <c r="I10" s="123"/>
-      <c r="J10" s="123"/>
-      <c r="K10" s="123"/>
+      <c r="H10" s="169"/>
+      <c r="I10" s="170"/>
+      <c r="J10" s="170"/>
+      <c r="K10" s="170"/>
     </row>
     <row r="11" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G11" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="122"/>
-      <c r="I11" s="123"/>
-      <c r="J11" s="123"/>
-      <c r="K11" s="123"/>
+      <c r="H11" s="169"/>
+      <c r="I11" s="170"/>
+      <c r="J11" s="170"/>
+      <c r="K11" s="170"/>
     </row>
     <row r="12" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="28"/>
       <c r="G12" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="H12" s="122"/>
-      <c r="I12" s="123"/>
-      <c r="J12" s="123"/>
-      <c r="K12" s="123"/>
+      <c r="H12" s="169"/>
+      <c r="I12" s="170"/>
+      <c r="J12" s="170"/>
+      <c r="K12" s="170"/>
     </row>
     <row r="13" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="29"/>
@@ -3492,11 +3504,11 @@
       </c>
     </row>
     <row r="15" spans="1:11" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="154" t="s">
+      <c r="A15" s="124" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="155"/>
-      <c r="C15" s="155"/>
+      <c r="B15" s="125"/>
+      <c r="C15" s="125"/>
       <c r="D15" s="3"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -3510,11 +3522,11 @@
       </c>
     </row>
     <row r="16" spans="1:11" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="154" t="s">
+      <c r="A16" s="124" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="155"/>
-      <c r="C16" s="155"/>
+      <c r="B16" s="125"/>
+      <c r="C16" s="125"/>
       <c r="D16" s="3"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -3528,11 +3540,11 @@
       </c>
     </row>
     <row r="17" spans="1:11" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="175" t="s">
+      <c r="A17" s="174" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="176"/>
-      <c r="C17" s="176"/>
+      <c r="B17" s="175"/>
+      <c r="C17" s="175"/>
       <c r="D17" s="3"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -3546,11 +3558,11 @@
       </c>
     </row>
     <row r="18" spans="1:11" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="154" t="s">
+      <c r="A18" s="124" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="155"/>
-      <c r="C18" s="155"/>
+      <c r="B18" s="125"/>
+      <c r="C18" s="125"/>
       <c r="D18" s="5"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -3600,12 +3612,12 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="158" t="s">
+      <c r="A21" s="128" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="159"/>
-      <c r="C21" s="159"/>
-      <c r="D21" s="160"/>
+      <c r="B21" s="129"/>
+      <c r="C21" s="129"/>
+      <c r="D21" s="130"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
@@ -3677,91 +3689,91 @@
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
-      <c r="G27" s="127" t="s">
+      <c r="G27" s="163" t="s">
         <v>32</v>
       </c>
-      <c r="H27" s="128"/>
-      <c r="I27" s="129" t="s">
+      <c r="H27" s="164"/>
+      <c r="I27" s="165" t="s">
         <v>45</v>
       </c>
-      <c r="J27" s="130"/>
-      <c r="K27" s="131"/>
+      <c r="J27" s="166"/>
+      <c r="K27" s="167"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="161" t="s">
+      <c r="A28" s="131" t="s">
         <v>55</v>
       </c>
-      <c r="B28" s="136" t="s">
+      <c r="B28" s="146" t="s">
         <v>15</v>
       </c>
       <c r="C28" s="177" t="s">
         <v>14</v>
       </c>
       <c r="D28" s="177"/>
-      <c r="E28" s="144" t="s">
+      <c r="E28" s="156" t="s">
         <v>18</v>
       </c>
-      <c r="F28" s="145"/>
-      <c r="G28" s="146"/>
-      <c r="H28" s="147"/>
-      <c r="I28" s="148">
+      <c r="F28" s="157"/>
+      <c r="G28" s="158"/>
+      <c r="H28" s="159"/>
+      <c r="I28" s="160">
         <v>0.2</v>
       </c>
-      <c r="J28" s="132"/>
-      <c r="K28" s="134">
+      <c r="J28" s="148"/>
+      <c r="K28" s="150">
         <f>J28*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="173"/>
-      <c r="B29" s="136"/>
+      <c r="A29" s="145"/>
+      <c r="B29" s="146"/>
       <c r="C29" s="177" t="s">
         <v>16</v>
       </c>
       <c r="D29" s="177"/>
-      <c r="E29" s="137" t="s">
+      <c r="E29" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="138"/>
-      <c r="G29" s="139"/>
-      <c r="H29" s="140"/>
-      <c r="I29" s="149"/>
-      <c r="J29" s="132"/>
-      <c r="K29" s="134"/>
+      <c r="F29" s="153"/>
+      <c r="G29" s="138"/>
+      <c r="H29" s="139"/>
+      <c r="I29" s="161"/>
+      <c r="J29" s="148"/>
+      <c r="K29" s="150"/>
     </row>
     <row r="30" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="162"/>
-      <c r="B30" s="141"/>
+      <c r="A30" s="132"/>
+      <c r="B30" s="147"/>
       <c r="C30" s="178" t="s">
         <v>17</v>
       </c>
       <c r="D30" s="178"/>
-      <c r="E30" s="137" t="s">
+      <c r="E30" s="152" t="s">
         <v>56</v>
       </c>
-      <c r="F30" s="138"/>
-      <c r="G30" s="142"/>
-      <c r="H30" s="143"/>
-      <c r="I30" s="150"/>
-      <c r="J30" s="133"/>
-      <c r="K30" s="135"/>
+      <c r="F30" s="153"/>
+      <c r="G30" s="154"/>
+      <c r="H30" s="155"/>
+      <c r="I30" s="162"/>
+      <c r="J30" s="149"/>
+      <c r="K30" s="151"/>
     </row>
     <row r="31" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="161" t="s">
+      <c r="A31" s="131" t="s">
         <v>57</v>
       </c>
-      <c r="B31" s="163" t="s">
+      <c r="B31" s="133" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="164"/>
-      <c r="D31" s="165"/>
-      <c r="E31" s="166" t="s">
+      <c r="C31" s="134"/>
+      <c r="D31" s="135"/>
+      <c r="E31" s="136" t="s">
         <v>59</v>
       </c>
-      <c r="F31" s="167"/>
-      <c r="G31" s="139"/>
-      <c r="H31" s="140"/>
+      <c r="F31" s="137"/>
+      <c r="G31" s="138"/>
+      <c r="H31" s="139"/>
       <c r="I31" s="51">
         <v>0.4</v>
       </c>
@@ -3772,18 +3784,18 @@
       </c>
     </row>
     <row r="32" spans="1:11" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="162"/>
-      <c r="B32" s="168" t="s">
+      <c r="A32" s="132"/>
+      <c r="B32" s="140" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="169"/>
-      <c r="D32" s="170"/>
-      <c r="E32" s="171" t="s">
+      <c r="C32" s="141"/>
+      <c r="D32" s="142"/>
+      <c r="E32" s="143" t="s">
         <v>23</v>
       </c>
-      <c r="F32" s="172"/>
-      <c r="G32" s="139"/>
-      <c r="H32" s="140"/>
+      <c r="F32" s="144"/>
+      <c r="G32" s="138"/>
+      <c r="H32" s="139"/>
       <c r="I32" s="51">
         <v>0.4</v>
       </c>
@@ -3797,16 +3809,16 @@
       <c r="A33" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="B33" s="151" t="s">
+      <c r="B33" s="121" t="s">
         <v>60</v>
       </c>
-      <c r="C33" s="152"/>
-      <c r="D33" s="152"/>
-      <c r="E33" s="152"/>
-      <c r="F33" s="152"/>
-      <c r="G33" s="152"/>
-      <c r="H33" s="152"/>
-      <c r="I33" s="153"/>
+      <c r="C33" s="122"/>
+      <c r="D33" s="122"/>
+      <c r="E33" s="122"/>
+      <c r="F33" s="122"/>
+      <c r="G33" s="122"/>
+      <c r="H33" s="122"/>
+      <c r="I33" s="123"/>
       <c r="J33" s="53"/>
       <c r="K33" s="54"/>
     </row>
@@ -3890,23 +3902,17 @@
     <row r="45" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:B30"/>
     <mergeCell ref="J28:J30"/>
     <mergeCell ref="K28:K30"/>
     <mergeCell ref="C29:D29"/>
@@ -3919,17 +3925,23 @@
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="I28:I30"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="H8:K8"/>
   </mergeCells>
   <conditionalFormatting sqref="K28:K35">
     <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
@@ -3953,11 +3965,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageLayout" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11:L11"/>
+    <sheetView showZeros="0" tabSelected="1" view="pageLayout" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -4022,10 +4034,10 @@
         <v>10</v>
       </c>
       <c r="B5" s="85"/>
-      <c r="C5" s="179"/>
-      <c r="D5" s="179"/>
-      <c r="E5" s="179"/>
-      <c r="F5" s="179"/>
+      <c r="C5" s="216"/>
+      <c r="D5" s="216"/>
+      <c r="E5" s="216"/>
+      <c r="F5" s="216"/>
       <c r="H5" s="78"/>
       <c r="I5" s="79" t="s">
         <v>8</v>
@@ -4047,87 +4059,87 @@
         <v>11</v>
       </c>
       <c r="B7" s="85"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
+      <c r="C7" s="216"/>
+      <c r="D7" s="216"/>
+      <c r="E7" s="216"/>
+      <c r="F7" s="216"/>
       <c r="H7" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="182"/>
-      <c r="J7" s="183"/>
-      <c r="K7" s="183"/>
-      <c r="L7" s="183"/>
+      <c r="I7" s="219"/>
+      <c r="J7" s="220"/>
+      <c r="K7" s="220"/>
+      <c r="L7" s="220"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="83" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="83"/>
-      <c r="C8" s="184"/>
-      <c r="D8" s="184"/>
-      <c r="E8" s="184"/>
-      <c r="F8" s="184"/>
+      <c r="C8" s="221"/>
+      <c r="D8" s="221"/>
+      <c r="E8" s="221"/>
+      <c r="F8" s="221"/>
       <c r="H8" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="180"/>
-      <c r="J8" s="181"/>
-      <c r="K8" s="181"/>
-      <c r="L8" s="181"/>
+      <c r="I8" s="217"/>
+      <c r="J8" s="218"/>
+      <c r="K8" s="218"/>
+      <c r="L8" s="218"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="85" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="85"/>
-      <c r="C9" s="179"/>
-      <c r="D9" s="179"/>
-      <c r="E9" s="179"/>
-      <c r="F9" s="179"/>
+      <c r="C9" s="216"/>
+      <c r="D9" s="216"/>
+      <c r="E9" s="216"/>
+      <c r="F9" s="216"/>
       <c r="H9" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="180"/>
-      <c r="J9" s="181"/>
-      <c r="K9" s="181"/>
-      <c r="L9" s="181"/>
+      <c r="I9" s="217"/>
+      <c r="J9" s="218"/>
+      <c r="K9" s="218"/>
+      <c r="L9" s="218"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="85" t="s">
         <v>44</v>
       </c>
       <c r="B10" s="85"/>
-      <c r="C10" s="179"/>
-      <c r="D10" s="179"/>
-      <c r="E10" s="179"/>
-      <c r="F10" s="179"/>
+      <c r="C10" s="216"/>
+      <c r="D10" s="216"/>
+      <c r="E10" s="216"/>
+      <c r="F10" s="216"/>
       <c r="H10" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="180"/>
-      <c r="J10" s="181"/>
-      <c r="K10" s="181"/>
-      <c r="L10" s="181"/>
+      <c r="I10" s="217"/>
+      <c r="J10" s="218"/>
+      <c r="K10" s="218"/>
+      <c r="L10" s="218"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="180"/>
-      <c r="J11" s="181"/>
-      <c r="K11" s="181"/>
-      <c r="L11" s="181"/>
+      <c r="I11" s="217"/>
+      <c r="J11" s="218"/>
+      <c r="K11" s="218"/>
+      <c r="L11" s="218"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="89"/>
       <c r="H12" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="180"/>
-      <c r="J12" s="181"/>
-      <c r="K12" s="181"/>
-      <c r="L12" s="181"/>
+      <c r="I12" s="217"/>
+      <c r="J12" s="218"/>
+      <c r="K12" s="218"/>
+      <c r="L12" s="218"/>
     </row>
     <row r="13" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="90"/>
@@ -4143,95 +4155,95 @@
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
-      <c r="H14" s="127" t="s">
+      <c r="H14" s="163" t="s">
         <v>32</v>
       </c>
-      <c r="I14" s="128"/>
-      <c r="J14" s="129" t="s">
+      <c r="I14" s="164"/>
+      <c r="J14" s="165" t="s">
         <v>45</v>
       </c>
-      <c r="K14" s="130"/>
-      <c r="L14" s="131"/>
+      <c r="K14" s="166"/>
+      <c r="L14" s="167"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="185" t="s">
+      <c r="A15" s="194" t="s">
         <v>80</v>
       </c>
-      <c r="B15" s="188" t="s">
+      <c r="B15" s="210" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="188" t="s">
+      <c r="C15" s="210" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="188"/>
-      <c r="E15" s="188"/>
-      <c r="F15" s="190" t="s">
+      <c r="D15" s="210"/>
+      <c r="E15" s="210"/>
+      <c r="F15" s="199" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="191"/>
-      <c r="H15" s="146"/>
-      <c r="I15" s="147"/>
-      <c r="J15" s="148">
+      <c r="G15" s="215"/>
+      <c r="H15" s="158"/>
+      <c r="I15" s="159"/>
+      <c r="J15" s="160">
         <v>0.2</v>
       </c>
-      <c r="K15" s="192"/>
-      <c r="L15" s="194">
+      <c r="K15" s="206"/>
+      <c r="L15" s="208">
         <f>K15*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="186"/>
-      <c r="B16" s="188"/>
-      <c r="C16" s="188" t="s">
+      <c r="A16" s="214"/>
+      <c r="B16" s="210"/>
+      <c r="C16" s="210" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="188"/>
-      <c r="E16" s="188"/>
-      <c r="F16" s="196" t="s">
+      <c r="D16" s="210"/>
+      <c r="E16" s="210"/>
+      <c r="F16" s="211" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="197"/>
-      <c r="H16" s="139"/>
-      <c r="I16" s="140"/>
-      <c r="J16" s="149"/>
-      <c r="K16" s="192"/>
-      <c r="L16" s="194"/>
+      <c r="G16" s="212"/>
+      <c r="H16" s="138"/>
+      <c r="I16" s="139"/>
+      <c r="J16" s="161"/>
+      <c r="K16" s="206"/>
+      <c r="L16" s="208"/>
     </row>
     <row r="17" spans="1:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="187"/>
-      <c r="B17" s="189"/>
-      <c r="C17" s="189" t="s">
+      <c r="A17" s="195"/>
+      <c r="B17" s="213"/>
+      <c r="C17" s="213" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="189"/>
-      <c r="E17" s="189"/>
-      <c r="F17" s="196" t="s">
+      <c r="D17" s="213"/>
+      <c r="E17" s="213"/>
+      <c r="F17" s="211" t="s">
         <v>56</v>
       </c>
-      <c r="G17" s="197"/>
-      <c r="H17" s="142"/>
-      <c r="I17" s="143"/>
-      <c r="J17" s="150"/>
-      <c r="K17" s="193"/>
-      <c r="L17" s="195"/>
+      <c r="G17" s="212"/>
+      <c r="H17" s="154"/>
+      <c r="I17" s="155"/>
+      <c r="J17" s="162"/>
+      <c r="K17" s="207"/>
+      <c r="L17" s="209"/>
     </row>
     <row r="18" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="185" t="s">
+      <c r="A18" s="194" t="s">
         <v>81</v>
       </c>
-      <c r="B18" s="198" t="s">
+      <c r="B18" s="196" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="199"/>
-      <c r="D18" s="199"/>
-      <c r="E18" s="200"/>
-      <c r="F18" s="190" t="s">
+      <c r="C18" s="197"/>
+      <c r="D18" s="197"/>
+      <c r="E18" s="198"/>
+      <c r="F18" s="199" t="s">
         <v>59</v>
       </c>
-      <c r="G18" s="201"/>
-      <c r="H18" s="139"/>
-      <c r="I18" s="140"/>
+      <c r="G18" s="200"/>
+      <c r="H18" s="138"/>
+      <c r="I18" s="139"/>
       <c r="J18" s="73">
         <v>0.4</v>
       </c>
@@ -4243,19 +4255,19 @@
       <c r="M18" s="94"/>
     </row>
     <row r="19" spans="1:13" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="187"/>
-      <c r="B19" s="202" t="s">
+      <c r="A19" s="195"/>
+      <c r="B19" s="201" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="203"/>
-      <c r="D19" s="203"/>
-      <c r="E19" s="204"/>
-      <c r="F19" s="205" t="s">
+      <c r="C19" s="202"/>
+      <c r="D19" s="202"/>
+      <c r="E19" s="203"/>
+      <c r="F19" s="204" t="s">
         <v>23</v>
       </c>
-      <c r="G19" s="206"/>
-      <c r="H19" s="139"/>
-      <c r="I19" s="140"/>
+      <c r="G19" s="205"/>
+      <c r="H19" s="138"/>
+      <c r="I19" s="139"/>
       <c r="J19" s="73">
         <v>0.4</v>
       </c>
@@ -4269,17 +4281,17 @@
       <c r="A20" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="151" t="s">
+      <c r="B20" s="121" t="s">
         <v>82</v>
       </c>
-      <c r="C20" s="152"/>
-      <c r="D20" s="152"/>
-      <c r="E20" s="152"/>
-      <c r="F20" s="152"/>
-      <c r="G20" s="152"/>
-      <c r="H20" s="152"/>
-      <c r="I20" s="152"/>
-      <c r="J20" s="153"/>
+      <c r="C20" s="122"/>
+      <c r="D20" s="122"/>
+      <c r="E20" s="122"/>
+      <c r="F20" s="122"/>
+      <c r="G20" s="122"/>
+      <c r="H20" s="122"/>
+      <c r="I20" s="122"/>
+      <c r="J20" s="123"/>
       <c r="K20" s="92"/>
       <c r="L20" s="95"/>
     </row>
@@ -4317,90 +4329,90 @@
       <c r="L22" s="98"/>
     </row>
     <row r="23" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="207" t="s">
+      <c r="A23" s="185" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="208"/>
-      <c r="C23" s="208"/>
-      <c r="D23" s="208"/>
-      <c r="E23" s="208"/>
-      <c r="F23" s="208"/>
-      <c r="G23" s="208"/>
-      <c r="H23" s="208"/>
-      <c r="I23" s="208"/>
-      <c r="J23" s="208"/>
-      <c r="K23" s="208"/>
-      <c r="L23" s="209"/>
+      <c r="B23" s="186"/>
+      <c r="C23" s="186"/>
+      <c r="D23" s="186"/>
+      <c r="E23" s="186"/>
+      <c r="F23" s="186"/>
+      <c r="G23" s="186"/>
+      <c r="H23" s="186"/>
+      <c r="I23" s="186"/>
+      <c r="J23" s="186"/>
+      <c r="K23" s="186"/>
+      <c r="L23" s="187"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="210"/>
-      <c r="B24" s="211"/>
-      <c r="C24" s="211"/>
-      <c r="D24" s="211"/>
-      <c r="E24" s="211"/>
-      <c r="F24" s="211"/>
-      <c r="G24" s="211"/>
-      <c r="H24" s="211"/>
-      <c r="I24" s="211"/>
-      <c r="J24" s="211"/>
-      <c r="K24" s="211"/>
-      <c r="L24" s="212"/>
+      <c r="A24" s="188"/>
+      <c r="B24" s="189"/>
+      <c r="C24" s="189"/>
+      <c r="D24" s="189"/>
+      <c r="E24" s="189"/>
+      <c r="F24" s="189"/>
+      <c r="G24" s="189"/>
+      <c r="H24" s="189"/>
+      <c r="I24" s="189"/>
+      <c r="J24" s="189"/>
+      <c r="K24" s="189"/>
+      <c r="L24" s="190"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="210"/>
-      <c r="B25" s="211"/>
-      <c r="C25" s="211"/>
-      <c r="D25" s="211"/>
-      <c r="E25" s="211"/>
-      <c r="F25" s="211"/>
-      <c r="G25" s="211"/>
-      <c r="H25" s="211"/>
-      <c r="I25" s="211"/>
-      <c r="J25" s="211"/>
-      <c r="K25" s="211"/>
-      <c r="L25" s="212"/>
+      <c r="A25" s="188"/>
+      <c r="B25" s="189"/>
+      <c r="C25" s="189"/>
+      <c r="D25" s="189"/>
+      <c r="E25" s="189"/>
+      <c r="F25" s="189"/>
+      <c r="G25" s="189"/>
+      <c r="H25" s="189"/>
+      <c r="I25" s="189"/>
+      <c r="J25" s="189"/>
+      <c r="K25" s="189"/>
+      <c r="L25" s="190"/>
     </row>
     <row r="26" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="210"/>
-      <c r="B26" s="211"/>
-      <c r="C26" s="211"/>
-      <c r="D26" s="211"/>
-      <c r="E26" s="211"/>
-      <c r="F26" s="211"/>
-      <c r="G26" s="211"/>
-      <c r="H26" s="211"/>
-      <c r="I26" s="211"/>
-      <c r="J26" s="211"/>
-      <c r="K26" s="211"/>
-      <c r="L26" s="212"/>
+      <c r="A26" s="188"/>
+      <c r="B26" s="189"/>
+      <c r="C26" s="189"/>
+      <c r="D26" s="189"/>
+      <c r="E26" s="189"/>
+      <c r="F26" s="189"/>
+      <c r="G26" s="189"/>
+      <c r="H26" s="189"/>
+      <c r="I26" s="189"/>
+      <c r="J26" s="189"/>
+      <c r="K26" s="189"/>
+      <c r="L26" s="190"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="213"/>
-      <c r="B27" s="214"/>
-      <c r="C27" s="214"/>
-      <c r="D27" s="214"/>
-      <c r="E27" s="214"/>
-      <c r="F27" s="214"/>
-      <c r="G27" s="214"/>
-      <c r="H27" s="214"/>
-      <c r="I27" s="214"/>
-      <c r="J27" s="214"/>
-      <c r="K27" s="214"/>
-      <c r="L27" s="215"/>
+      <c r="A27" s="191"/>
+      <c r="B27" s="192"/>
+      <c r="C27" s="192"/>
+      <c r="D27" s="192"/>
+      <c r="E27" s="192"/>
+      <c r="F27" s="192"/>
+      <c r="G27" s="192"/>
+      <c r="H27" s="192"/>
+      <c r="I27" s="192"/>
+      <c r="J27" s="192"/>
+      <c r="K27" s="192"/>
+      <c r="L27" s="193"/>
     </row>
     <row r="29" spans="1:13" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="216" t="s">
+      <c r="A29" s="182" t="s">
         <v>83</v>
       </c>
-      <c r="B29" s="216"/>
-      <c r="C29" s="216"/>
-      <c r="D29" s="216"/>
-      <c r="E29" s="216"/>
-      <c r="F29" s="216"/>
-      <c r="G29" s="216"/>
-      <c r="H29" s="216"/>
-      <c r="I29" s="217"/>
-      <c r="J29" s="217"/>
+      <c r="B29" s="182"/>
+      <c r="C29" s="182"/>
+      <c r="D29" s="182"/>
+      <c r="E29" s="182"/>
+      <c r="F29" s="182"/>
+      <c r="G29" s="182"/>
+      <c r="H29" s="182"/>
+      <c r="I29" s="183"/>
+      <c r="J29" s="183"/>
       <c r="K29" s="101" t="s">
         <v>84</v>
       </c>
@@ -4410,18 +4422,18 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="216" t="s">
+      <c r="A30" s="182" t="s">
         <v>85</v>
       </c>
-      <c r="B30" s="216"/>
-      <c r="C30" s="216"/>
-      <c r="D30" s="216"/>
-      <c r="E30" s="216"/>
-      <c r="F30" s="216"/>
-      <c r="G30" s="216"/>
-      <c r="H30" s="216"/>
-      <c r="I30" s="217"/>
-      <c r="J30" s="217"/>
+      <c r="B30" s="182"/>
+      <c r="C30" s="182"/>
+      <c r="D30" s="182"/>
+      <c r="E30" s="182"/>
+      <c r="F30" s="182"/>
+      <c r="G30" s="182"/>
+      <c r="H30" s="182"/>
+      <c r="I30" s="183"/>
+      <c r="J30" s="183"/>
       <c r="K30" s="102" t="s">
         <v>84</v>
       </c>
@@ -4431,18 +4443,18 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="216" t="s">
+      <c r="A31" s="182" t="s">
         <v>86</v>
       </c>
-      <c r="B31" s="216"/>
-      <c r="C31" s="216"/>
-      <c r="D31" s="216"/>
-      <c r="E31" s="216"/>
-      <c r="F31" s="216"/>
-      <c r="G31" s="216"/>
-      <c r="H31" s="216"/>
-      <c r="I31" s="217"/>
-      <c r="J31" s="217"/>
+      <c r="B31" s="182"/>
+      <c r="C31" s="182"/>
+      <c r="D31" s="182"/>
+      <c r="E31" s="182"/>
+      <c r="F31" s="182"/>
+      <c r="G31" s="182"/>
+      <c r="H31" s="182"/>
+      <c r="I31" s="183"/>
+      <c r="J31" s="183"/>
       <c r="K31" s="102" t="s">
         <v>92</v>
       </c>
@@ -4452,18 +4464,18 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="216" t="s">
+      <c r="A32" s="182" t="s">
         <v>87</v>
       </c>
-      <c r="B32" s="216"/>
-      <c r="C32" s="216"/>
-      <c r="D32" s="216"/>
-      <c r="E32" s="216"/>
-      <c r="F32" s="216"/>
-      <c r="G32" s="216"/>
-      <c r="H32" s="216"/>
-      <c r="I32" s="217"/>
-      <c r="J32" s="217"/>
+      <c r="B32" s="182"/>
+      <c r="C32" s="182"/>
+      <c r="D32" s="182"/>
+      <c r="E32" s="182"/>
+      <c r="F32" s="182"/>
+      <c r="G32" s="182"/>
+      <c r="H32" s="182"/>
+      <c r="I32" s="183"/>
+      <c r="J32" s="183"/>
       <c r="K32" s="102" t="s">
         <v>61</v>
       </c>
@@ -4473,21 +4485,21 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A33" s="216" t="s">
+      <c r="A33" s="182" t="s">
         <v>88</v>
       </c>
-      <c r="B33" s="216"/>
-      <c r="C33" s="216"/>
-      <c r="D33" s="216"/>
-      <c r="E33" s="216"/>
-      <c r="F33" s="216"/>
-      <c r="G33" s="216"/>
-      <c r="H33" s="216"/>
-      <c r="I33" s="221">
+      <c r="B33" s="182"/>
+      <c r="C33" s="182"/>
+      <c r="D33" s="182"/>
+      <c r="E33" s="182"/>
+      <c r="F33" s="182"/>
+      <c r="G33" s="182"/>
+      <c r="H33" s="182"/>
+      <c r="I33" s="184">
         <f>L21</f>
         <v>0</v>
       </c>
-      <c r="J33" s="221"/>
+      <c r="J33" s="184"/>
       <c r="K33" s="102" t="s">
         <v>92</v>
       </c>
@@ -4515,14 +4527,14 @@
       <c r="C35" s="96"/>
       <c r="D35" s="96"/>
       <c r="E35" s="96"/>
-      <c r="F35" s="218" t="s">
+      <c r="F35" s="179" t="s">
         <v>90</v>
       </c>
-      <c r="G35" s="219"/>
-      <c r="H35" s="219"/>
-      <c r="I35" s="219"/>
-      <c r="J35" s="219"/>
-      <c r="K35" s="220"/>
+      <c r="G35" s="180"/>
+      <c r="H35" s="180"/>
+      <c r="I35" s="180"/>
+      <c r="J35" s="180"/>
+      <c r="K35" s="181"/>
       <c r="L35" s="107">
         <f>L34/10</f>
         <v>0</v>
@@ -4633,26 +4645,24 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="F35:K35"/>
-    <mergeCell ref="A31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="A32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="A33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="B20:J20"/>
-    <mergeCell ref="A23:L27"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="A30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
     <mergeCell ref="K15:K17"/>
     <mergeCell ref="L15:L17"/>
     <mergeCell ref="C16:E16"/>
@@ -4662,24 +4672,26 @@
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="H17:I17"/>
     <mergeCell ref="J15:J17"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="B20:J20"/>
+    <mergeCell ref="A23:L27"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="F35:K35"/>
+    <mergeCell ref="A31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="I33:J33"/>
   </mergeCells>
   <conditionalFormatting sqref="L15:L39 I33:J33">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
@@ -4705,7 +4717,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4720,24 +4732,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100570C130F412EDB4EBF3E80DF6A9149FD" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cfaa3b10b9be17ef9f56bd19dc71004c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ddb0c952b897a810c8a4e377cff6bff8" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4803,10 +4797,37 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28A807C1-6DB8-4C6A-8DCB-8B5F61EFE299}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A00BD0D-8423-4FFE-92A4-D273D2078383}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4821,18 +4842,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A00BD0D-8423-4FFE-92A4-D273D2078383}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28A807C1-6DB8-4C6A-8DCB-8B5F61EFE299}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>